--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2116 +418,2320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.9800895275519255</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>28.4336014646585</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.004012558354239838</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.004288044864718823</v>
+      </c>
+      <c r="E2">
         <v>1.550991532584105</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.239118086373291</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>9.311469361284709</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.2436553896719496</v>
+      </c>
+      <c r="I2">
+        <v>6.867159779281407</v>
+      </c>
+      <c r="J2">
         <v>1.494311794517295</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>7.525904355242864</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>4.569212039026886</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>27.83016659759261</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.116797108046268</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>1.845873981361877</v>
       </c>
-      <c r="N2" t="n">
-        <v>84.90154840659457</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>92.01263906205841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.7076633266369988</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>20.53018263648863</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E3">
         <v>1.163243649438078</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.126470987612083</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>8.464972146622459</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I3">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J3">
         <v>1.797843877778621</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>9.05460367740157</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>3.794769320547754</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>23.11318920817015</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.1021974695404845</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>1.615139733691643</v>
       </c>
-      <c r="N3" t="n">
-        <v>71.47328545269414</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>73.69562180787494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.8382344643536204</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>24.31821177898425</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E4">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.408088734515103</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>10.58121518327808</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I4">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J4">
         <v>1.70444939062129</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>8.584234655198889</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>3.71732504869984</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>22.64149146922788</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N4" t="n">
-        <v>74.81608665652415</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>78.81605793231566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.05424103786013</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>30.58482789126097</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E5">
         <v>1.03399435505607</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.295441635753895</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>9.734717968615827</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I5">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J5">
         <v>1.634403525253292</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>8.231457888546881</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>3.484992233156102</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>21.22639825240114</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N5" t="n">
-        <v>78.52848371298316</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>82.52850090319308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.075196899468971</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>31.19278318573557</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E6">
         <v>1.809490121348122</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.351765185134499</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>10.15796657594695</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I6">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J6">
         <v>2.148073204618612</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>10.81848751066162</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>3.872213592395668</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>23.58488694711238</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N6" t="n">
-        <v>86.99688008520641</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>91.44146096673114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.9607456552976108</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>27.87241196206657</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E7">
         <v>1.03399435505607</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.689706481418123</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>12.69745821993369</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1675130803994654</v>
+      </c>
+      <c r="I7">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="J7">
         <v>2.358210800722607</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>11.87681781061764</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>3.484992233156102</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>21.22639825240114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.2335942160925361</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>3.691747962723754</v>
       </c>
-      <c r="N7" t="n">
-        <v>87.12875298838867</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>92.01762207471775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.059077005923708</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>30.72512526690895</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E8">
         <v>1.163243649438078</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.196618425843561</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>16.5066956859138</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I8">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J8">
         <v>1.634403525253292</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>8.231457888546881</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>2.865438058372793</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>17.45281634086316</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.116797108046268</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>1.845873981361877</v>
       </c>
-      <c r="N8" t="n">
-        <v>83.80055635523806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>89.13387434683594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.162244324613385</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>33.71813594739933</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E9">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.027647777701749</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>15.23694986392043</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.3197976989444338</v>
+      </c>
+      <c r="I9">
+        <v>9.013147210306851</v>
+      </c>
+      <c r="J9">
         <v>1.914586986725285</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>9.642564955154917</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>2.245883883589487</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>13.67923442932518</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>1.153671238351173</v>
       </c>
-      <c r="N9" t="n">
-        <v>81.63141964477903</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>90.96450229728555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.6555130670984</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>48.02846826349389</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E10">
         <v>1.163243649438078</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.689706481418123</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>12.69745821993369</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.2741123133809433</v>
+      </c>
+      <c r="I10">
+        <v>7.725554751691584</v>
+      </c>
+      <c r="J10">
         <v>1.611054903463959</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>8.113865632996212</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>1.781218252502007</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>10.84904799567169</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N10" t="n">
-        <v>88.57392142948581</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>96.57379510944121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.650677099034822</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>47.88817088784591</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E11">
         <v>1.03399435505607</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.408088734515103</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>10.58121518327808</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.4111684700714149</v>
+      </c>
+      <c r="I11">
+        <v>11.58833212753738</v>
+      </c>
+      <c r="J11">
         <v>0.9339448715733097</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>4.703690222026789</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>1.85866252434992</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>11.32074573461394</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>81.38186465119676</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>93.38154890647921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.28314352620285</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>37.22557033859896</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.005015697942799798</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.005360056080898528</v>
+      </c>
+      <c r="E12">
         <v>1.938739415730131</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1.013823888850875</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>7.618474931960215</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.3502546226534275</v>
+      </c>
+      <c r="I12">
+        <v>9.871542182717025</v>
+      </c>
+      <c r="J12">
         <v>1.097385224098639</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>5.526836010881476</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.781218252502007</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>10.84904799567169</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>68.33925528243964</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>78.5613964459482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.028449208187711</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>29.83657522113839</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E13">
         <v>1.421742238202096</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.239118086373291</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>9.311469361284709</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.2436553896719496</v>
+      </c>
+      <c r="I13">
+        <v>6.867159779281407</v>
+      </c>
+      <c r="J13">
         <v>0.6537614101013167</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>3.292583155418753</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>3.175215145764448</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>19.33960729663216</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N13" t="n">
-        <v>69.54753318777028</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>76.6586008860249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.768918922108994</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>22.30728272802979</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E14">
         <v>1.03399435505607</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.6758825925672493</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>5.078983287973477</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I14">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J14">
         <v>0.4903210575759877</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>2.469437366564065</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>3.252659417612361</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>19.8113050355744</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>55.89145980196523</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>59.89147699217514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.5061646573212248</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>14.68445865115588</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E15">
         <v>1.421742238202096</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.6758825925672493</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>5.078983287973477</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I15">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J15">
         <v>0.5837155447333185</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>2.939806388766743</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>2.013551068045747</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>12.26414121249844</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>40.17212381975556</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>44.1722098815931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.2530823286606124</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>7.342229325577939</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E16">
         <v>1.163243649438078</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.3942648456642289</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2.962740251317861</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.1065992329814779</v>
+      </c>
+      <c r="I16">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="J16">
         <v>0.2568348396826601</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>1.293514811057367</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>1.548885436958268</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>9.433954778844951</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>24.65175968596765</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>27.7629479372676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.183766786415986</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.331300274623471</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E17">
         <v>1.03399435505607</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.05632354938060414</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.423248607331123</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I17">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J17">
         <v>0.2801834614719929</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>1.411107066608037</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>1.006775534022874</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>6.13207060624922</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>15.8614452800622</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>18.08375867803378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1080032867532549</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.133308056138356</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E18">
         <v>1.809490121348122</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.2252941975224166</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.692994429324492</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.04568538556349055</v>
+      </c>
+      <c r="I18">
+        <v>1.287592458615264</v>
+      </c>
+      <c r="J18">
         <v>0.2334862178933274</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>1.175922555506697</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>1.006775534022874</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>6.13207060624922</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>15.52202632283871</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>16.85562556794635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.08543543578988821</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.478586969781088</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E19">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.05632354938060414</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.423248607331123</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19">
         <v>0.2334862178933274</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>1.175922555506697</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>1.084219805870787</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>6.603768345191469</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>12.91849353221416</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>12.9186312754694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.07576349966273108</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.197992218485115</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E20">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.2252941975224166</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.692994429324492</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.01522846185449685</v>
+      </c>
+      <c r="I20">
+        <v>0.4291974862050879</v>
+      </c>
+      <c r="J20">
         <v>0.3969265704186565</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>1.999068344361385</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>1.471441165110354</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>8.962257039902704</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>17.41048848752244</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>17.85498330720964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1563629673890407</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.536281812618217</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E21">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.3379412962836246</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>2.539491643986739</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.04568538556349055</v>
+      </c>
+      <c r="I21">
+        <v>1.287592458615264</v>
+      </c>
+      <c r="J21">
         <v>0.3735779486293237</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>1.881476088810716</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>3.330103689460275</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>20.28300277451665</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>33.82698924442917</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>35.16033596023555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.411057285404179</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>11.92527693007881</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E22">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.126470987612083</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>8.464972146622459</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I22">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J22">
         <v>0.6070641665226512</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>3.057398644317413</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>6.272986019680982</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>38.20751685432206</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>70.46149405729523</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>74.46139646145912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.9446257617523495</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>27.40475404323994</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E23">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.9575003394702701</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>7.195226324629091</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.5177677030528929</v>
+      </c>
+      <c r="I23">
+        <v>14.592714530973</v>
+      </c>
+      <c r="J23">
         <v>1.634403525253292</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>8.231457888546881</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>5.730876116745587</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>34.90563268172632</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N23" t="n">
-        <v>88.76331427153698</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>103.8739342488181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.221887930730854</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>35.44847024705783</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E24">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.9575003394702701</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>7.195226324629091</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.3197976989444338</v>
+      </c>
+      <c r="I24">
+        <v>9.013147210306851</v>
+      </c>
+      <c r="J24">
         <v>1.470963172727963</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>7.408312099692194</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>4.646656310874802</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>28.30186433653486</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N24" t="n">
-        <v>88.53930202613597</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>97.87240763585172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.436282514882838</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>41.66832056745186</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E25">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.633382932037519</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>12.27420961260257</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2893407752354401</v>
+      </c>
+      <c r="I25">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="J25">
         <v>1.237476954834635</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>6.232389544185494</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>3.71732504869984</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>22.64149146922788</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>1.384405486021409</v>
       </c>
-      <c r="N25" t="n">
-        <v>92.96080033220306</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>101.4050081313812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.170304271386016</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>33.95196490681264</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.005350077805653119</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.005717393152958431</v>
+      </c>
+      <c r="E26">
         <v>2.06798871011214</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.464412283895707</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>11.0044637906092</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.2893407752354401</v>
+      </c>
+      <c r="I26">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="J26">
         <v>1.867889743146619</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>9.407380444053578</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>5.575987573049765</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>33.96223720384183</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.1021974695404845</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.615139733691643</v>
       </c>
-      <c r="N26" t="n">
-        <v>102.1953162079453</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>110.6397765364247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.8462944111262516</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>24.55204073839756</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.004012558354239838</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.004288044864718823</v>
+      </c>
+      <c r="E27">
         <v>1.550991532584105</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.351765185134499</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>10.15796657594695</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1065992329814779</v>
+      </c>
+      <c r="I27">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="J27">
         <v>2.264816313565276</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>11.40644878841496</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>4.646656310874802</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>28.30186433653486</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>1.384405486021409</v>
       </c>
-      <c r="N27" t="n">
-        <v>86.55486006798962</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>89.66611719091719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.9139979640163512</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>26.51620399746936</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E28">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.520735833276311</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>11.42771239794032</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I28">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J28">
         <v>1.867889743146619</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>9.407380444053578</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>4.027102136091495</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>24.52828242499688</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N28" t="n">
-        <v>81.36172454688098</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>85.80614472794126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.009105335933397</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>29.27538571854642</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E29">
         <v>1.421742238202096</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1.126470987612083</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>8.464972146622459</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I29">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J29">
         <v>1.914586986725285</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>9.642564955154917</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>2.787993786524882</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>16.98111860192092</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N29" t="n">
-        <v>73.60895448043792</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>77.60904054227545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.10904867591402</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>32.17486481527148</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.004012558354239838</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.004288044864718823</v>
+      </c>
+      <c r="E30">
         <v>1.550991532584105</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.408088734515103</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>10.58121518327808</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I30">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J30">
         <v>1.517660416306628</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>7.643496610793533</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>3.252659417612361</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>19.8113050355744</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N30" t="n">
-        <v>79.29867686637998</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>83.29878588542672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.038121144314868</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>30.11716997243435</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E31">
         <v>1.163243649438078</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.408088734515103</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>10.58121518327808</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1218276948359748</v>
+      </c>
+      <c r="I31">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="J31">
         <v>2.288164935354608</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>11.52404104396563</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>3.097770873916535</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>18.8679095576899</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>1.153671238351173</v>
       </c>
-      <c r="N31" t="n">
-        <v>81.31540394455294</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>84.87101814391247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.175140239449595</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>34.09226228246062</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.004346938217093159</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.004645381936778725</v>
+      </c>
+      <c r="E32">
         <v>1.680240826966114</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1.070147438231478</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>8.041723539291334</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.1218276948359748</v>
+      </c>
+      <c r="I32">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="J32">
         <v>1.611054903463959</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>8.113865632996212</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>3.252659417612361</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>19.8113050355744</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N32" t="n">
-        <v>79.58874791279123</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>83.1444539409876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.275083579430218</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>36.99174137918566</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E33">
         <v>1.03399435505607</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1.971324228321145</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>14.8137012565893</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.2893407752354401</v>
+      </c>
+      <c r="I33">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="J33">
         <v>1.961284230303951</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>9.877749466256258</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>1.936106796197834</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>11.79244347355619</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>1.153671238351173</v>
       </c>
-      <c r="N33" t="n">
-        <v>82.88277323467956</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>91.32704990548532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.524941929381779</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>44.24043912099826</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E34">
         <v>1.421742238202096</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.802353580179332</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>13.54395543459593</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3350261607989307</v>
+      </c>
+      <c r="I34">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="J34">
         <v>1.330871441991966</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>6.702758566388173</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>1.239108349566614</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>7.547163823075961</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N34" t="n">
-        <v>79.60234654904752</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>89.37996993565966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.605541397108088</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>46.57872871513138</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E35">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.295441635753895</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>9.734717968615827</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.4111684700714149</v>
+      </c>
+      <c r="I35">
+        <v>11.58833212753738</v>
+      </c>
+      <c r="J35">
         <v>0.7004586536799819</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>3.527767666520092</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>1.703773980654094</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>10.37735025672944</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>76.43086599390683</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>88.43052729198007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.499150099709359</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>43.49218645087567</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E36">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.351765185134499</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>10.15796657594695</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.3045692370899369</v>
+      </c>
+      <c r="I36">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="J36">
         <v>0.9806421151519754</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>4.938874733128129</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>2.555660970981142</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>15.56602538509417</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>81.19018988724622</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>90.07882363448395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.9285058682070874</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>26.93709612441332</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E37">
         <v>1.421742238202096</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.239118086373291</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>9.311469361284709</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.3654830845079244</v>
+      </c>
+      <c r="I37">
+        <v>10.30073966892211</v>
+      </c>
+      <c r="J37">
         <v>0.4669724357866549</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>2.351845111013394</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>2.633105242829054</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>16.03772312403642</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>61.33125577063741</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>71.99773105336871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.7963227411359397</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>23.10230119003502</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E38">
         <v>1.163243649438078</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1.013823888850875</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>7.618474931960215</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I38">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J38">
         <v>0.6304127883119839</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>3.174990899868082</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>2.555660970981142</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>15.56602538509417</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>55.6242658644412</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>60.0687319599199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.5529123486024841</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>16.04066661575307</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E39">
         <v>1.809490121348122</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.6195590431866453</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>4.655734680642355</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.197970004108459</v>
+      </c>
+      <c r="I39">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="J39">
         <v>0.3735779486293237</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>1.881476088810716</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>2.09099533989366</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>12.73583895144069</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N39" t="n">
-        <v>41.01026634256303</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>46.78812506826652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3449657218686051</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>10.00787946288967</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E40">
         <v>1.163243649438078</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.2252941975224166</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1.692994429324492</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.1065992329814779</v>
+      </c>
+      <c r="I40">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="J40">
         <v>0.350229326839991</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.763883833260046</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>1.006775534022874</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>6.13207060624922</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>22.69034618018107</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>25.80153443148102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1853787757705122</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.37806606650613</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E41">
         <v>1.809490121348122</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.2252941975224166</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1.692994429324492</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I41">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J41">
         <v>0.3735779486293237</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>1.881476088810716</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>1.161664077718701</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>7.075466084133715</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>19.78808910784407</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>22.01054024907089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1080032867532549</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.133308056138356</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E42">
         <v>1.03399435505607</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.1689706481418123</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1.269745821993369</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I42">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J42">
         <v>0.350229326839991</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>1.763883833260046</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.7744427184791338</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>4.716977389422476</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>13.32223047498734</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>15.10011792489933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.0822114570808358</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.385055386015763</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E43">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.1126470987612083</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43">
         <v>0.2334862178933274</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>1.175922555506697</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>1.393996893262441</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>8.490559300960458</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>15.49787816961215</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>15.49801591286739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.06286758482652149</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.823865883423819</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E44">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.1126470987612083</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.01522846185449685</v>
+      </c>
+      <c r="I44">
+        <v>0.4291974862050879</v>
+      </c>
+      <c r="J44">
         <v>0.3735779486293237</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>1.881476088810716</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>1.781218252502007</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>10.84904799567169</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>18.11994909002212</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>18.56444390970933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1902147438340908</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>5.518363442154119</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E45">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.4505883950448331</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>3.385988858648984</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I45">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J45">
         <v>0.443623813997322</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>2.234252855462725</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>2.942882330220708</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>17.92451407980541</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>33.7383468903925</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>35.96059141673646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.3369057750959745</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>9.774050503476364</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.126470987612083</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>8.464972146622459</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I46">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J46">
         <v>0.7705045190479803</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>3.880544433172101</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>6.427874563376806</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>39.15091233220655</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N46" t="n">
-        <v>70.66823691913838</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>76.00134829585339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.9945974317426609</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>28.85449359160247</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E47">
         <v>1.03399435505607</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.295441635753895</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>9.734717968615827</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.5177677030528929</v>
+      </c>
+      <c r="I47">
+        <v>14.592714530973</v>
+      </c>
+      <c r="J47">
         <v>1.657752147042624</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>8.34905014409755</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>6.582763107072634</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>40.09430781009105</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N47" t="n">
-        <v>99.09046100232963</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>114.2011268940292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.188036154285805</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>34.46638861752191</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.005015697942799798</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.005360056080898528</v>
+      </c>
+      <c r="E48">
         <v>1.938739415730131</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.8448532407090615</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>6.348729109966844</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.3350261607989307</v>
+      </c>
+      <c r="I48">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="J48">
         <v>1.517660416306628</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>7.643496610793533</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>4.87898912641854</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>29.7169575533616</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>1.153671238351173</v>
       </c>
-      <c r="N48" t="n">
-        <v>89.77553537391695</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>99.55325058936593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.510434025191043</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>43.81954699405433</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.00133751945141328</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.001429348288239608</v>
+      </c>
+      <c r="E49">
         <v>0.516997177528035</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.577059382656915</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>11.85096100527145</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.3045692370899369</v>
+      </c>
+      <c r="I49">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="J49">
         <v>1.377568685570632</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>6.937943077489514</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>4.414323495331063</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>26.88677111970811</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N49" t="n">
-        <v>99.13827636842854</v>
+      <c r="P49">
+        <v>108.026887158457</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.9800895275519255</v>
+        <v>1.883884660743522</v>
       </c>
       <c r="C2">
-        <v>28.4336014646585</v>
+        <v>54.65380880332564</v>
       </c>
       <c r="D2">
-        <v>0.004288044864718823</v>
+        <v>0.008242289829788878</v>
       </c>
       <c r="E2">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="F2">
-        <v>1.239118086373291</v>
+        <v>2.381777878597762</v>
       </c>
       <c r="G2">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="H2">
-        <v>0.2436553896719496</v>
+        <v>0.4683435933215318</v>
       </c>
       <c r="I2">
-        <v>6.867159779281407</v>
+        <v>13.19975023442713</v>
       </c>
       <c r="J2">
-        <v>1.494311794517295</v>
+        <v>2.872299916407495</v>
       </c>
       <c r="K2">
-        <v>7.525904355242864</v>
+        <v>14.46595986846083</v>
       </c>
       <c r="L2">
-        <v>4.569212039026886</v>
+        <v>8.782736913339106</v>
       </c>
       <c r="M2">
-        <v>27.83016659759261</v>
+        <v>53.49391304088158</v>
       </c>
       <c r="N2">
-        <v>0.116797108046268</v>
+        <v>0.2245022256458205</v>
       </c>
       <c r="O2">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="P2">
-        <v>92.01263906205841</v>
+        <v>176.8626175983278</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.7076633266369988</v>
+        <v>1.36023908892501</v>
       </c>
       <c r="C3">
-        <v>20.53018263648863</v>
+        <v>39.46220734319071</v>
       </c>
       <c r="D3">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E3">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F3">
-        <v>1.126470987612083</v>
+        <v>2.165252616907057</v>
       </c>
       <c r="G3">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="H3">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I3">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J3">
-        <v>1.797843877778621</v>
+        <v>3.455735836927768</v>
       </c>
       <c r="K3">
-        <v>9.05460367740157</v>
+        <v>17.40435796674194</v>
       </c>
       <c r="L3">
-        <v>3.794769320547754</v>
+        <v>7.294137436501968</v>
       </c>
       <c r="M3">
-        <v>23.11318920817015</v>
+        <v>44.42714811869829</v>
       </c>
       <c r="N3">
-        <v>0.1021974695404845</v>
+        <v>0.1964394474400929</v>
       </c>
       <c r="O3">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="P3">
-        <v>73.69562180787494</v>
+        <v>141.6544586845979</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.8382344643536204</v>
+        <v>1.611217144056958</v>
       </c>
       <c r="C4">
-        <v>24.31821177898425</v>
+        <v>46.74338910810746</v>
       </c>
       <c r="D4">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E4">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F4">
-        <v>1.408088734515103</v>
+        <v>2.706565771133821</v>
       </c>
       <c r="G4">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="H4">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I4">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J4">
-        <v>1.70444939062129</v>
+        <v>3.2762170921523</v>
       </c>
       <c r="K4">
-        <v>8.584234655198889</v>
+        <v>16.50023547496313</v>
       </c>
       <c r="L4">
-        <v>3.71732504869984</v>
+        <v>7.145277488818256</v>
       </c>
       <c r="M4">
-        <v>22.64149146922788</v>
+        <v>43.52047162647995</v>
       </c>
       <c r="N4">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O4">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P4">
-        <v>78.81605793231566</v>
+        <v>151.4967341094211</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.05424103786013</v>
+        <v>2.026415408102406</v>
       </c>
       <c r="C5">
-        <v>30.58482789126097</v>
+        <v>58.78880091673518</v>
       </c>
       <c r="D5">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E5">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F5">
-        <v>1.295441635753895</v>
+        <v>2.490040509443116</v>
       </c>
       <c r="G5">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="H5">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I5">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J5">
-        <v>1.634403525253292</v>
+        <v>3.141578033570699</v>
       </c>
       <c r="K5">
-        <v>8.231457888546881</v>
+        <v>15.82214360612904</v>
       </c>
       <c r="L5">
-        <v>3.484992233156102</v>
+        <v>6.698697645767115</v>
       </c>
       <c r="M5">
-        <v>21.22639825240114</v>
+        <v>40.80044214982495</v>
       </c>
       <c r="N5">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O5">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P5">
-        <v>82.52850090319308</v>
+        <v>158.6326274845808</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.075196899468971</v>
+        <v>2.06669583670383</v>
       </c>
       <c r="C6">
-        <v>31.19278318573557</v>
+        <v>59.95738564443784</v>
       </c>
       <c r="D6">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E6">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F6">
-        <v>1.351765185134499</v>
+        <v>2.598303140288469</v>
       </c>
       <c r="G6">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="H6">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I6">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J6">
-        <v>2.148073204618612</v>
+        <v>4.128931129835775</v>
       </c>
       <c r="K6">
-        <v>10.81848751066162</v>
+        <v>20.79481731091245</v>
       </c>
       <c r="L6">
-        <v>3.872213592395668</v>
+        <v>7.442997384185683</v>
       </c>
       <c r="M6">
-        <v>23.58488694711238</v>
+        <v>45.33382461091661</v>
       </c>
       <c r="N6">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O6">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P6">
-        <v>91.44146096673114</v>
+        <v>175.7647243731779</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.9607456552976108</v>
+        <v>1.8467027266499</v>
       </c>
       <c r="C7">
-        <v>27.87241196206657</v>
+        <v>53.57511520852317</v>
       </c>
       <c r="D7">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E7">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F7">
-        <v>1.689706481418123</v>
+        <v>3.247878925360586</v>
       </c>
       <c r="G7">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H7">
-        <v>0.1675130803994654</v>
+        <v>0.3219862204085532</v>
       </c>
       <c r="I7">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="J7">
-        <v>2.358210800722607</v>
+        <v>4.532848305580579</v>
       </c>
       <c r="K7">
-        <v>11.87681781061764</v>
+        <v>22.82909291741474</v>
       </c>
       <c r="L7">
-        <v>3.484992233156102</v>
+        <v>6.698697645767115</v>
       </c>
       <c r="M7">
-        <v>21.22639825240114</v>
+        <v>40.80044214982495</v>
       </c>
       <c r="N7">
-        <v>0.2335942160925361</v>
+        <v>0.449004451291641</v>
       </c>
       <c r="O7">
-        <v>3.691747962723754</v>
+        <v>7.09611434751093</v>
       </c>
       <c r="P7">
-        <v>92.01762207471775</v>
+        <v>176.8721957244575</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.059077005923708</v>
+        <v>2.035710891625812</v>
       </c>
       <c r="C8">
-        <v>30.72512526690895</v>
+        <v>59.05847431543579</v>
       </c>
       <c r="D8">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E8">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F8">
-        <v>2.196618425843561</v>
+        <v>4.222242602968763</v>
       </c>
       <c r="G8">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="H8">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I8">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J8">
-        <v>1.634403525253292</v>
+        <v>3.141578033570699</v>
       </c>
       <c r="K8">
-        <v>8.231457888546881</v>
+        <v>15.82214360612904</v>
       </c>
       <c r="L8">
-        <v>2.865438058372793</v>
+        <v>5.507818064297407</v>
       </c>
       <c r="M8">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="N8">
-        <v>0.116797108046268</v>
+        <v>0.2245022256458205</v>
       </c>
       <c r="O8">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="P8">
-        <v>89.13387434683594</v>
+        <v>171.3291836247565</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.162244324613385</v>
+        <v>2.234014540125131</v>
       </c>
       <c r="C9">
-        <v>33.71813594739933</v>
+        <v>64.81150682104898</v>
       </c>
       <c r="D9">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E9">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F9">
-        <v>2.027647777701749</v>
+        <v>3.897454710432704</v>
       </c>
       <c r="G9">
-        <v>15.23694986392043</v>
+        <v>29.28778985819436</v>
       </c>
       <c r="H9">
-        <v>0.3197976989444338</v>
+        <v>0.6147009662345104</v>
       </c>
       <c r="I9">
-        <v>9.013147210306851</v>
+        <v>17.32467218268562</v>
       </c>
       <c r="J9">
-        <v>1.914586986725285</v>
+        <v>3.680134267897104</v>
       </c>
       <c r="K9">
-        <v>9.642564955154917</v>
+        <v>18.53451108146544</v>
       </c>
       <c r="L9">
-        <v>2.245883883589487</v>
+        <v>4.316938482827696</v>
       </c>
       <c r="M9">
-        <v>13.67923442932518</v>
+        <v>26.29361827433164</v>
       </c>
       <c r="N9">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O9">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P9">
-        <v>90.96450229728555</v>
+        <v>174.847935553465</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.6555130670984</v>
+        <v>3.182153859512492</v>
       </c>
       <c r="C10">
-        <v>48.02846826349389</v>
+        <v>92.31819348851224</v>
       </c>
       <c r="D10">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E10">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F10">
-        <v>1.689706481418123</v>
+        <v>3.247878925360586</v>
       </c>
       <c r="G10">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H10">
-        <v>0.2741123133809433</v>
+        <v>0.5268865424867232</v>
       </c>
       <c r="I10">
-        <v>7.725554751691584</v>
+        <v>14.84971901373054</v>
       </c>
       <c r="J10">
-        <v>1.611054903463959</v>
+        <v>3.09669834737683</v>
       </c>
       <c r="K10">
-        <v>8.113865632996212</v>
+        <v>15.59611298318434</v>
       </c>
       <c r="L10">
-        <v>1.781218252502007</v>
+        <v>3.423778796725414</v>
       </c>
       <c r="M10">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="N10">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O10">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P10">
-        <v>96.57379510944121</v>
+        <v>185.6298696415008</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,43 +930,43 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.650677099034822</v>
+        <v>3.172858375989088</v>
       </c>
       <c r="C11">
-        <v>47.88817088784591</v>
+        <v>92.04852008981162</v>
       </c>
       <c r="D11">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E11">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F11">
-        <v>1.408088734515103</v>
+        <v>2.706565771133821</v>
       </c>
       <c r="G11">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="H11">
-        <v>0.4111684700714149</v>
+        <v>0.7903298137300847</v>
       </c>
       <c r="I11">
-        <v>11.58833212753738</v>
+        <v>22.2745785205958</v>
       </c>
       <c r="J11">
-        <v>0.9339448715733097</v>
+        <v>1.795187447754685</v>
       </c>
       <c r="K11">
-        <v>4.703690222026789</v>
+        <v>9.041224917788021</v>
       </c>
       <c r="L11">
-        <v>1.85866252434992</v>
+        <v>3.572638744409128</v>
       </c>
       <c r="M11">
-        <v>11.32074573461394</v>
+        <v>21.76023581323998</v>
       </c>
       <c r="P11">
-        <v>93.38154890647921</v>
+        <v>179.493875442993</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,43 +974,43 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.28314352620285</v>
+        <v>2.466401628210267</v>
       </c>
       <c r="C12">
-        <v>37.22557033859896</v>
+        <v>71.55334178856447</v>
       </c>
       <c r="D12">
-        <v>0.005360056080898528</v>
+        <v>0.0103028622872361</v>
       </c>
       <c r="E12">
-        <v>1.938739415730131</v>
+        <v>3.726558996702827</v>
       </c>
       <c r="F12">
-        <v>1.013823888850875</v>
+        <v>1.948727355216352</v>
       </c>
       <c r="G12">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="H12">
-        <v>0.3502546226534275</v>
+        <v>0.6732439153997017</v>
       </c>
       <c r="I12">
-        <v>9.871542182717025</v>
+        <v>18.97464096198901</v>
       </c>
       <c r="J12">
-        <v>1.097385224098639</v>
+        <v>2.109345251111755</v>
       </c>
       <c r="K12">
-        <v>5.526836010881476</v>
+        <v>10.62343927840092</v>
       </c>
       <c r="L12">
-        <v>1.781218252502007</v>
+        <v>3.423778796725414</v>
       </c>
       <c r="M12">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="P12">
-        <v>78.5613964459482</v>
+        <v>151.0072350847268</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,49 +1018,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.028449208187711</v>
+        <v>1.976839495977576</v>
       </c>
       <c r="C13">
-        <v>29.83657522113839</v>
+        <v>57.35054279033183</v>
       </c>
       <c r="D13">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E13">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F13">
-        <v>1.239118086373291</v>
+        <v>2.381777878597762</v>
       </c>
       <c r="G13">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="H13">
-        <v>0.2436553896719496</v>
+        <v>0.4683435933215318</v>
       </c>
       <c r="I13">
-        <v>6.867159779281407</v>
+        <v>13.19975023442713</v>
       </c>
       <c r="J13">
-        <v>0.6537614101013167</v>
+        <v>1.256631213428279</v>
       </c>
       <c r="K13">
-        <v>3.292583155418753</v>
+        <v>6.328857442451612</v>
       </c>
       <c r="L13">
-        <v>3.175215145764448</v>
+        <v>6.103257855032262</v>
       </c>
       <c r="M13">
-        <v>19.33960729663216</v>
+        <v>37.1737361809516</v>
       </c>
       <c r="N13">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O13">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P13">
-        <v>76.6586008860249</v>
+        <v>147.349765774934</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.768918922108994</v>
+        <v>1.477981880221479</v>
       </c>
       <c r="C14">
-        <v>22.30728272802979</v>
+        <v>42.87807039339857</v>
       </c>
       <c r="D14">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E14">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F14">
-        <v>0.6758825925672493</v>
+        <v>1.299151570144234</v>
       </c>
       <c r="G14">
-        <v>5.078983287973477</v>
+        <v>9.762596619398121</v>
       </c>
       <c r="H14">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I14">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J14">
-        <v>0.4903210575759877</v>
+        <v>0.9424734100712097</v>
       </c>
       <c r="K14">
-        <v>2.469437366564065</v>
+        <v>4.74664308183871</v>
       </c>
       <c r="L14">
-        <v>3.252659417612361</v>
+        <v>6.252117802715977</v>
       </c>
       <c r="M14">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="P14">
-        <v>59.89147699217514</v>
+        <v>115.1207432005283</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.5061646573212248</v>
+        <v>0.9729272754497785</v>
       </c>
       <c r="C15">
-        <v>14.68445865115588</v>
+        <v>28.22581573066489</v>
       </c>
       <c r="D15">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E15">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F15">
-        <v>0.6758825925672493</v>
+        <v>1.299151570144234</v>
       </c>
       <c r="G15">
-        <v>5.078983287973477</v>
+        <v>9.762596619398121</v>
       </c>
       <c r="H15">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I15">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J15">
-        <v>0.5837155447333185</v>
+        <v>1.121992154846678</v>
       </c>
       <c r="K15">
-        <v>2.939806388766743</v>
+        <v>5.650765573617513</v>
       </c>
       <c r="L15">
-        <v>2.013551068045747</v>
+        <v>3.870358639776555</v>
       </c>
       <c r="M15">
-        <v>12.26414121249844</v>
+        <v>23.57358879767664</v>
       </c>
       <c r="P15">
-        <v>44.1722098815931</v>
+        <v>84.90586450294241</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2530823286606124</v>
+        <v>0.4864636377248893</v>
       </c>
       <c r="C16">
-        <v>7.342229325577939</v>
+        <v>14.11290786533244</v>
       </c>
       <c r="D16">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E16">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F16">
-        <v>0.3942648456642289</v>
+        <v>0.7578384159174699</v>
       </c>
       <c r="G16">
-        <v>2.962740251317861</v>
+        <v>5.694848027982236</v>
       </c>
       <c r="H16">
-        <v>0.1065992329814779</v>
+        <v>0.2049003220781702</v>
       </c>
       <c r="I16">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="J16">
-        <v>0.2568348396826601</v>
+        <v>0.4936765481325384</v>
       </c>
       <c r="K16">
-        <v>1.293514811057367</v>
+        <v>2.486336852391706</v>
       </c>
       <c r="L16">
-        <v>1.548885436958268</v>
+        <v>2.977198953674273</v>
       </c>
       <c r="M16">
-        <v>9.433954778844951</v>
+        <v>18.13352984436665</v>
       </c>
       <c r="P16">
-        <v>27.7629479372676</v>
+        <v>53.3647083105563</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.183766786415986</v>
+        <v>0.3532283738894101</v>
       </c>
       <c r="C17">
-        <v>5.331300274623471</v>
+        <v>10.24758915062356</v>
       </c>
       <c r="D17">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E17">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F17">
-        <v>0.05632354938060414</v>
+        <v>0.1082626308453529</v>
       </c>
       <c r="G17">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="H17">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I17">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J17">
-        <v>0.2801834614719929</v>
+        <v>0.5385562343264056</v>
       </c>
       <c r="K17">
-        <v>1.411107066608037</v>
+        <v>2.712367475336406</v>
       </c>
       <c r="L17">
-        <v>1.006775534022874</v>
+        <v>1.935179319888278</v>
       </c>
       <c r="M17">
-        <v>6.13207060624922</v>
+        <v>11.78679439883832</v>
       </c>
       <c r="P17">
-        <v>18.08375867803378</v>
+        <v>34.75979961466373</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,43 +1244,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1080032867532549</v>
+        <v>0.2075991320227235</v>
       </c>
       <c r="C18">
-        <v>3.133308056138356</v>
+        <v>6.022705904313844</v>
       </c>
       <c r="D18">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E18">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F18">
-        <v>0.2252941975224166</v>
+        <v>0.4330505233814115</v>
       </c>
       <c r="G18">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H18">
-        <v>0.04568538556349055</v>
+        <v>0.0878144237477872</v>
       </c>
       <c r="I18">
-        <v>1.287592458615264</v>
+        <v>2.474953168955089</v>
       </c>
       <c r="J18">
-        <v>0.2334862178933274</v>
+        <v>0.4487968619386712</v>
       </c>
       <c r="K18">
-        <v>1.175922555506697</v>
+        <v>2.260306229447005</v>
       </c>
       <c r="L18">
-        <v>1.006775534022874</v>
+        <v>1.935179319888278</v>
       </c>
       <c r="M18">
-        <v>6.13207060624922</v>
+        <v>11.78679439883832</v>
       </c>
       <c r="P18">
-        <v>16.85562556794635</v>
+        <v>32.39913657072322</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,37 +1288,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.08543543578988821</v>
+        <v>0.1642202089134977</v>
       </c>
       <c r="C19">
-        <v>2.478586969781088</v>
+        <v>4.764230043710953</v>
       </c>
       <c r="D19">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E19">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F19">
-        <v>0.05632354938060414</v>
+        <v>0.1082626308453529</v>
       </c>
       <c r="G19">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="J19">
-        <v>0.2334862178933274</v>
+        <v>0.4487968619386712</v>
       </c>
       <c r="K19">
-        <v>1.175922555506697</v>
+        <v>2.260306229447005</v>
       </c>
       <c r="L19">
-        <v>1.084219805870787</v>
+        <v>2.084039267571991</v>
       </c>
       <c r="M19">
-        <v>6.603768345191469</v>
+        <v>12.69347089105665</v>
       </c>
       <c r="P19">
-        <v>12.9186312754694</v>
+        <v>24.83162059536333</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.07576349966273108</v>
+        <v>0.1456292418666866</v>
       </c>
       <c r="C20">
-        <v>2.197992218485115</v>
+        <v>4.224883246309711</v>
       </c>
       <c r="D20">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E20">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F20">
-        <v>0.2252941975224166</v>
+        <v>0.4330505233814115</v>
       </c>
       <c r="G20">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H20">
-        <v>0.01522846185449685</v>
+        <v>0.02927147458259574</v>
       </c>
       <c r="I20">
-        <v>0.4291974862050879</v>
+        <v>0.8249843896516958</v>
       </c>
       <c r="J20">
-        <v>0.3969265704186565</v>
+        <v>0.762954665295741</v>
       </c>
       <c r="K20">
-        <v>1.999068344361385</v>
+        <v>3.842520590059909</v>
       </c>
       <c r="L20">
-        <v>1.471441165110354</v>
+        <v>2.828339005990559</v>
       </c>
       <c r="M20">
-        <v>8.962257039902704</v>
+        <v>17.22685335214831</v>
       </c>
       <c r="P20">
-        <v>17.85498330720964</v>
+        <v>34.32005773421734</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,43 +1370,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1563629673890407</v>
+        <v>0.3005539672567787</v>
       </c>
       <c r="C21">
-        <v>4.536281812618217</v>
+        <v>8.719439891320045</v>
       </c>
       <c r="D21">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E21">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F21">
-        <v>0.3379412962836246</v>
+        <v>0.6495757850721172</v>
       </c>
       <c r="G21">
-        <v>2.539491643986739</v>
+        <v>4.88129830969906</v>
       </c>
       <c r="H21">
-        <v>0.04568538556349055</v>
+        <v>0.0878144237477872</v>
       </c>
       <c r="I21">
-        <v>1.287592458615264</v>
+        <v>2.474953168955089</v>
       </c>
       <c r="J21">
-        <v>0.3735779486293237</v>
+        <v>0.7180749791018738</v>
       </c>
       <c r="K21">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="L21">
-        <v>3.330103689460275</v>
+        <v>6.400977750399687</v>
       </c>
       <c r="M21">
-        <v>20.28300277451665</v>
+        <v>38.98708916538829</v>
       </c>
       <c r="P21">
-        <v>35.16033596023555</v>
+        <v>67.58363977985394</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,43 +1414,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.411057285404179</v>
+        <v>0.7901160994894705</v>
       </c>
       <c r="C22">
-        <v>11.92527693007881</v>
+        <v>22.92223888955269</v>
       </c>
       <c r="D22">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E22">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F22">
-        <v>1.126470987612083</v>
+        <v>2.165252616907057</v>
       </c>
       <c r="G22">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="H22">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I22">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J22">
-        <v>0.6070641665226512</v>
+        <v>1.166871841040545</v>
       </c>
       <c r="K22">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="L22">
-        <v>6.272986019680982</v>
+        <v>12.05765576238081</v>
       </c>
       <c r="M22">
-        <v>38.20751685432206</v>
+        <v>73.44079586968492</v>
       </c>
       <c r="P22">
-        <v>74.46139646145912</v>
+        <v>143.1263967911879</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,49 +1458,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.9446257617523495</v>
+        <v>1.815717781571881</v>
       </c>
       <c r="C23">
-        <v>27.40475404323994</v>
+        <v>52.67620387952109</v>
       </c>
       <c r="D23">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E23">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F23">
-        <v>0.9575003394702701</v>
+        <v>1.840464724370998</v>
       </c>
       <c r="G23">
-        <v>7.195226324629091</v>
+        <v>13.830345210814</v>
       </c>
       <c r="H23">
-        <v>0.5177677030528929</v>
+        <v>0.9952301358082553</v>
       </c>
       <c r="I23">
-        <v>14.592714530973</v>
+        <v>28.04946924815766</v>
       </c>
       <c r="J23">
-        <v>1.634403525253292</v>
+        <v>3.141578033570699</v>
       </c>
       <c r="K23">
-        <v>8.231457888546881</v>
+        <v>15.82214360612904</v>
       </c>
       <c r="L23">
-        <v>5.730876116745587</v>
+        <v>11.01563612859481</v>
       </c>
       <c r="M23">
-        <v>34.90563268172632</v>
+        <v>67.09406042415661</v>
       </c>
       <c r="N23">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O23">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P23">
-        <v>103.8739342488181</v>
+        <v>199.6618736159917</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1508,49 +1508,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.221887930730854</v>
+        <v>2.348658836913798</v>
       </c>
       <c r="C24">
-        <v>35.44847024705783</v>
+        <v>68.13747873835665</v>
       </c>
       <c r="D24">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E24">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F24">
-        <v>0.9575003394702701</v>
+        <v>1.840464724370998</v>
       </c>
       <c r="G24">
-        <v>7.195226324629091</v>
+        <v>13.830345210814</v>
       </c>
       <c r="H24">
-        <v>0.3197976989444338</v>
+        <v>0.6147009662345104</v>
       </c>
       <c r="I24">
-        <v>9.013147210306851</v>
+        <v>17.32467218268562</v>
       </c>
       <c r="J24">
-        <v>1.470963172727963</v>
+        <v>2.827420230213629</v>
       </c>
       <c r="K24">
-        <v>7.408312099692194</v>
+        <v>14.23992924551613</v>
       </c>
       <c r="L24">
-        <v>4.646656310874802</v>
+        <v>8.931596861022822</v>
       </c>
       <c r="M24">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="N24">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O24">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P24">
-        <v>97.87240763585172</v>
+        <v>188.1260050964574</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1558,49 +1558,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.436282514882838</v>
+        <v>2.760758606451442</v>
       </c>
       <c r="C25">
-        <v>41.66832056745186</v>
+        <v>80.09299941408415</v>
       </c>
       <c r="D25">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E25">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F25">
-        <v>1.633382932037519</v>
+        <v>3.139616294515232</v>
       </c>
       <c r="G25">
-        <v>12.27420961260257</v>
+        <v>23.59294183021213</v>
       </c>
       <c r="H25">
-        <v>0.2893407752354401</v>
+        <v>0.5561580170693191</v>
       </c>
       <c r="I25">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="J25">
-        <v>1.237476954834635</v>
+        <v>2.378623368274958</v>
       </c>
       <c r="K25">
-        <v>6.232389544185494</v>
+        <v>11.97962301606913</v>
       </c>
       <c r="L25">
-        <v>3.71732504869984</v>
+        <v>7.145277488818256</v>
       </c>
       <c r="M25">
-        <v>22.64149146922788</v>
+        <v>43.52047162647995</v>
       </c>
       <c r="N25">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O25">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P25">
-        <v>101.4050081313812</v>
+        <v>194.9162132345711</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1608,49 +1608,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.170304271386016</v>
+        <v>2.249507012664138</v>
       </c>
       <c r="C26">
-        <v>33.95196490681264</v>
+        <v>65.26096248555002</v>
       </c>
       <c r="D26">
-        <v>0.005717393152958431</v>
+        <v>0.01098971977305184</v>
       </c>
       <c r="E26">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="F26">
-        <v>1.464412283895707</v>
+        <v>2.814828401979175</v>
       </c>
       <c r="G26">
-        <v>11.0044637906092</v>
+        <v>21.15229267536259</v>
       </c>
       <c r="H26">
-        <v>0.2893407752354401</v>
+        <v>0.5561580170693191</v>
       </c>
       <c r="I26">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="J26">
-        <v>1.867889743146619</v>
+        <v>3.59037489550937</v>
       </c>
       <c r="K26">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="L26">
-        <v>5.575987573049765</v>
+        <v>10.71791623322738</v>
       </c>
       <c r="M26">
-        <v>33.96223720384183</v>
+        <v>65.2807074397199</v>
       </c>
       <c r="N26">
-        <v>0.1021974695404845</v>
+        <v>0.1964394474400929</v>
       </c>
       <c r="O26">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="P26">
-        <v>110.6397765364247</v>
+        <v>212.666875857439</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1658,49 +1658,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.8462944111262516</v>
+        <v>1.626709616595968</v>
       </c>
       <c r="C27">
-        <v>24.55204073839756</v>
+        <v>47.19284477260852</v>
       </c>
       <c r="D27">
-        <v>0.004288044864718823</v>
+        <v>0.008242289829788878</v>
       </c>
       <c r="E27">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="F27">
-        <v>1.351765185134499</v>
+        <v>2.598303140288469</v>
       </c>
       <c r="G27">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="H27">
-        <v>0.1065992329814779</v>
+        <v>0.2049003220781702</v>
       </c>
       <c r="I27">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="J27">
-        <v>2.264816313565276</v>
+        <v>4.353329560805111</v>
       </c>
       <c r="K27">
-        <v>11.40644878841496</v>
+        <v>21.92497042563595</v>
       </c>
       <c r="L27">
-        <v>4.646656310874802</v>
+        <v>8.931596861022822</v>
       </c>
       <c r="M27">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="N27">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O27">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P27">
-        <v>89.66611719091719</v>
+        <v>172.3522372352361</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1708,49 +1708,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.9139979640163512</v>
+        <v>1.756846385923645</v>
       </c>
       <c r="C28">
-        <v>26.51620399746936</v>
+        <v>50.96827235441717</v>
       </c>
       <c r="D28">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E28">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F28">
-        <v>1.520735833276311</v>
+        <v>2.923091032824526</v>
       </c>
       <c r="G28">
-        <v>11.42771239794032</v>
+        <v>21.96584239364577</v>
       </c>
       <c r="H28">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I28">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J28">
-        <v>1.867889743146619</v>
+        <v>3.59037489550937</v>
       </c>
       <c r="K28">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="L28">
-        <v>4.027102136091495</v>
+        <v>7.740717279553111</v>
       </c>
       <c r="M28">
-        <v>24.52828242499688</v>
+        <v>47.14717759535328</v>
       </c>
       <c r="N28">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O28">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P28">
-        <v>85.80614472794126</v>
+        <v>164.9327692075997</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1758,49 +1758,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.009105335933397</v>
+        <v>1.939657561883955</v>
       </c>
       <c r="C29">
-        <v>29.27538571854642</v>
+        <v>56.27184919552938</v>
       </c>
       <c r="D29">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E29">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F29">
-        <v>1.126470987612083</v>
+        <v>2.165252616907057</v>
       </c>
       <c r="G29">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="H29">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I29">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J29">
-        <v>1.914586986725285</v>
+        <v>3.680134267897104</v>
       </c>
       <c r="K29">
-        <v>9.642564955154917</v>
+        <v>18.53451108146544</v>
       </c>
       <c r="L29">
-        <v>2.787993786524882</v>
+        <v>5.35895811661369</v>
       </c>
       <c r="M29">
-        <v>16.98111860192092</v>
+        <v>32.64035371985995</v>
       </c>
       <c r="N29">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O29">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P29">
-        <v>77.60904054227545</v>
+        <v>149.1766587668888</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1808,49 +1808,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.10904867591402</v>
+        <v>2.131764221367668</v>
       </c>
       <c r="C30">
-        <v>32.17486481527148</v>
+        <v>61.84509943534217</v>
       </c>
       <c r="D30">
-        <v>0.004288044864718823</v>
+        <v>0.008242289829788878</v>
       </c>
       <c r="E30">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="F30">
-        <v>1.408088734515103</v>
+        <v>2.706565771133821</v>
       </c>
       <c r="G30">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="H30">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I30">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J30">
-        <v>1.517660416306628</v>
+        <v>2.917179602601362</v>
       </c>
       <c r="K30">
-        <v>7.643496610793533</v>
+        <v>14.69199049140553</v>
       </c>
       <c r="L30">
-        <v>3.252659417612361</v>
+        <v>6.252117802715977</v>
       </c>
       <c r="M30">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="N30">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O30">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P30">
-        <v>83.29878588542672</v>
+        <v>160.1132351450418</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1858,49 +1858,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.038121144314868</v>
+        <v>1.995430463024388</v>
       </c>
       <c r="C31">
-        <v>30.11716997243435</v>
+        <v>57.88988958773307</v>
       </c>
       <c r="D31">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E31">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F31">
-        <v>1.408088734515103</v>
+        <v>2.706565771133821</v>
       </c>
       <c r="G31">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="H31">
-        <v>0.1218276948359748</v>
+        <v>0.2341717966607659</v>
       </c>
       <c r="I31">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="J31">
-        <v>2.288164935354608</v>
+        <v>4.398209246998977</v>
       </c>
       <c r="K31">
-        <v>11.52404104396563</v>
+        <v>22.15100104858065</v>
       </c>
       <c r="L31">
-        <v>3.097770873916535</v>
+        <v>5.954397907348547</v>
       </c>
       <c r="M31">
-        <v>18.8679095576899</v>
+        <v>36.2670596887333</v>
       </c>
       <c r="N31">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O31">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P31">
-        <v>84.87101814391247</v>
+        <v>163.1353103245264</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1908,49 +1908,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.175140239449595</v>
+        <v>2.258802496187544</v>
       </c>
       <c r="C32">
-        <v>34.09226228246062</v>
+        <v>65.53063588425061</v>
       </c>
       <c r="D32">
-        <v>0.004645381936778725</v>
+        <v>0.008929147315604614</v>
       </c>
       <c r="E32">
-        <v>1.680240826966114</v>
+        <v>3.229684463809117</v>
       </c>
       <c r="F32">
-        <v>1.070147438231478</v>
+        <v>2.056989986061704</v>
       </c>
       <c r="G32">
-        <v>8.041723539291334</v>
+        <v>15.45744464738036</v>
       </c>
       <c r="H32">
-        <v>0.1218276948359748</v>
+        <v>0.2341717966607659</v>
       </c>
       <c r="I32">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="J32">
-        <v>1.611054903463959</v>
+        <v>3.09669834737683</v>
       </c>
       <c r="K32">
-        <v>8.113865632996212</v>
+        <v>15.59611298318434</v>
       </c>
       <c r="L32">
-        <v>3.252659417612361</v>
+        <v>6.252117802715977</v>
       </c>
       <c r="M32">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="N32">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O32">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P32">
-        <v>83.1444539409876</v>
+        <v>159.8165851201018</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1958,49 +1958,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.275083579430218</v>
+        <v>2.450909155671261</v>
       </c>
       <c r="C33">
-        <v>36.99174137918566</v>
+        <v>71.10388612406348</v>
       </c>
       <c r="D33">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E33">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F33">
-        <v>1.971324228321145</v>
+        <v>3.789192079587349</v>
       </c>
       <c r="G33">
-        <v>14.8137012565893</v>
+        <v>28.47424013991118</v>
       </c>
       <c r="H33">
-        <v>0.2893407752354401</v>
+        <v>0.5561580170693191</v>
       </c>
       <c r="I33">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="J33">
-        <v>1.961284230303951</v>
+        <v>3.769893640284839</v>
       </c>
       <c r="K33">
-        <v>9.877749466256258</v>
+        <v>18.98657232735484</v>
       </c>
       <c r="L33">
-        <v>1.936106796197834</v>
+        <v>3.721498692092842</v>
       </c>
       <c r="M33">
-        <v>11.79244347355619</v>
+        <v>22.6669123054583</v>
       </c>
       <c r="N33">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O33">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P33">
-        <v>91.32704990548532</v>
+        <v>175.5448085009629</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.524941929381779</v>
+        <v>2.931175804380544</v>
       </c>
       <c r="C34">
-        <v>44.24043912099826</v>
+        <v>85.03701172359547</v>
       </c>
       <c r="D34">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E34">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F34">
-        <v>1.802353580179332</v>
+        <v>3.464404187051292</v>
       </c>
       <c r="G34">
-        <v>13.54395543459593</v>
+        <v>26.03359098506165</v>
       </c>
       <c r="H34">
-        <v>0.3350261607989307</v>
+        <v>0.6439724408171064</v>
       </c>
       <c r="I34">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="J34">
-        <v>1.330871441991966</v>
+        <v>2.558142113050426</v>
       </c>
       <c r="K34">
-        <v>6.702758566388173</v>
+        <v>12.88374550784793</v>
       </c>
       <c r="L34">
-        <v>1.239108349566614</v>
+        <v>2.381759162939419</v>
       </c>
       <c r="M34">
-        <v>7.547163823075961</v>
+        <v>14.50682387549332</v>
       </c>
       <c r="N34">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O34">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P34">
-        <v>89.37996993565966</v>
+        <v>171.802217660759</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,43 +2058,43 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.605541397108088</v>
+        <v>3.086100529770636</v>
       </c>
       <c r="C35">
-        <v>46.57872871513138</v>
+        <v>89.53156836860582</v>
       </c>
       <c r="D35">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E35">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F35">
-        <v>1.295441635753895</v>
+        <v>2.490040509443116</v>
       </c>
       <c r="G35">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="H35">
-        <v>0.4111684700714149</v>
+        <v>0.7903298137300847</v>
       </c>
       <c r="I35">
-        <v>11.58833212753738</v>
+        <v>22.2745785205958</v>
       </c>
       <c r="J35">
-        <v>0.7004586536799819</v>
+        <v>1.346390585816014</v>
       </c>
       <c r="K35">
-        <v>3.527767666520092</v>
+        <v>6.780918688341015</v>
       </c>
       <c r="L35">
-        <v>1.703773980654094</v>
+        <v>3.2749188490417</v>
       </c>
       <c r="M35">
-        <v>10.37735025672944</v>
+        <v>19.94688282880331</v>
       </c>
       <c r="P35">
-        <v>88.43052729198007</v>
+        <v>169.9772410821893</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2102,43 +2102,43 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.499150099709359</v>
+        <v>2.881599892255716</v>
       </c>
       <c r="C36">
-        <v>43.49218645087567</v>
+        <v>83.59875359719217</v>
       </c>
       <c r="D36">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E36">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F36">
-        <v>1.351765185134499</v>
+        <v>2.598303140288469</v>
       </c>
       <c r="G36">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="H36">
-        <v>0.3045692370899369</v>
+        <v>0.5854294916519147</v>
       </c>
       <c r="I36">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="J36">
-        <v>0.9806421151519754</v>
+        <v>1.884946820142419</v>
       </c>
       <c r="K36">
-        <v>4.938874733128129</v>
+        <v>9.49328616367742</v>
       </c>
       <c r="L36">
-        <v>2.555660970981142</v>
+        <v>4.912378273562554</v>
       </c>
       <c r="M36">
-        <v>15.56602538509417</v>
+        <v>29.92032424320497</v>
       </c>
       <c r="P36">
-        <v>90.07882363448395</v>
+        <v>173.1455232734692</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2146,43 +2146,43 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.9285058682070874</v>
+        <v>1.784732836493862</v>
       </c>
       <c r="C37">
-        <v>26.93709612441332</v>
+        <v>51.777292550519</v>
       </c>
       <c r="D37">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E37">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F37">
-        <v>1.239118086373291</v>
+        <v>2.381777878597762</v>
       </c>
       <c r="G37">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="H37">
-        <v>0.3654830845079244</v>
+        <v>0.7025153899822976</v>
       </c>
       <c r="I37">
-        <v>10.30073966892211</v>
+        <v>19.79962535164071</v>
       </c>
       <c r="J37">
-        <v>0.4669724357866549</v>
+        <v>0.8975937238773425</v>
       </c>
       <c r="K37">
-        <v>2.351845111013394</v>
+        <v>4.520612458894011</v>
       </c>
       <c r="L37">
-        <v>2.633105242829054</v>
+        <v>5.061238221246266</v>
       </c>
       <c r="M37">
-        <v>16.03772312403642</v>
+        <v>30.82700073542329</v>
       </c>
       <c r="P37">
-        <v>71.99773105336871</v>
+        <v>138.3908483121638</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.7963227411359397</v>
+        <v>1.53065628685411</v>
       </c>
       <c r="C38">
-        <v>23.10230119003502</v>
+        <v>44.40621965270208</v>
       </c>
       <c r="D38">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E38">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F38">
-        <v>1.013823888850875</v>
+        <v>1.948727355216352</v>
       </c>
       <c r="G38">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="H38">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I38">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J38">
-        <v>0.6304127883119839</v>
+        <v>1.211751527234412</v>
       </c>
       <c r="K38">
-        <v>3.174990899868082</v>
+        <v>6.102826819506914</v>
       </c>
       <c r="L38">
-        <v>2.555660970981142</v>
+        <v>4.912378273562554</v>
       </c>
       <c r="M38">
-        <v>15.56602538509417</v>
+        <v>29.92032424320497</v>
       </c>
       <c r="P38">
-        <v>60.0687319599199</v>
+        <v>115.4614548451155</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,49 +2234,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.5529123486024841</v>
+        <v>1.062783616176032</v>
       </c>
       <c r="C39">
-        <v>16.04066661575307</v>
+        <v>30.83265858477089</v>
       </c>
       <c r="D39">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E39">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F39">
-        <v>0.6195590431866453</v>
+        <v>1.190888939298881</v>
       </c>
       <c r="G39">
-        <v>4.655734680642355</v>
+        <v>8.949046901114942</v>
       </c>
       <c r="H39">
-        <v>0.197970004108459</v>
+        <v>0.3805291695737446</v>
       </c>
       <c r="I39">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="J39">
-        <v>0.3735779486293237</v>
+        <v>0.7180749791018738</v>
       </c>
       <c r="K39">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="L39">
-        <v>2.09099533989366</v>
+        <v>4.019218587460268</v>
       </c>
       <c r="M39">
-        <v>12.73583895144069</v>
+        <v>24.48026528989498</v>
       </c>
       <c r="N39">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O39">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P39">
-        <v>46.78812506826652</v>
+        <v>89.9340607599614</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2284,43 +2284,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3449657218686051</v>
+        <v>0.6630778246695943</v>
       </c>
       <c r="C40">
-        <v>10.00787946288967</v>
+        <v>19.23670244064423</v>
       </c>
       <c r="D40">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E40">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F40">
-        <v>0.2252941975224166</v>
+        <v>0.4330505233814115</v>
       </c>
       <c r="G40">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H40">
-        <v>0.1065992329814779</v>
+        <v>0.2049003220781702</v>
       </c>
       <c r="I40">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="J40">
-        <v>0.350229326839991</v>
+        <v>0.6731952929080068</v>
       </c>
       <c r="K40">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="L40">
-        <v>1.006775534022874</v>
+        <v>1.935179319888278</v>
       </c>
       <c r="M40">
-        <v>6.13207060624922</v>
+        <v>11.78679439883832</v>
       </c>
       <c r="P40">
-        <v>25.80153443148102</v>
+        <v>49.59456618266713</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2328,43 +2328,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1853787757705122</v>
+        <v>0.3563268683972123</v>
       </c>
       <c r="C41">
-        <v>5.37806606650613</v>
+        <v>10.33748028352376</v>
       </c>
       <c r="D41">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E41">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F41">
-        <v>0.2252941975224166</v>
+        <v>0.4330505233814115</v>
       </c>
       <c r="G41">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H41">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I41">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J41">
-        <v>0.3735779486293237</v>
+        <v>0.7180749791018738</v>
       </c>
       <c r="K41">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="L41">
-        <v>1.161664077718701</v>
+        <v>2.232899215255705</v>
       </c>
       <c r="M41">
-        <v>7.075466084133715</v>
+        <v>13.60014738327498</v>
       </c>
       <c r="P41">
-        <v>22.01054024907089</v>
+        <v>42.30768514941172</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2372,43 +2372,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1080032867532549</v>
+        <v>0.2075991320227235</v>
       </c>
       <c r="C42">
-        <v>3.133308056138356</v>
+        <v>6.022705904313844</v>
       </c>
       <c r="D42">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E42">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F42">
-        <v>0.1689706481418123</v>
+        <v>0.3247878925360586</v>
       </c>
       <c r="G42">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H42">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I42">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J42">
-        <v>0.350229326839991</v>
+        <v>0.6731952929080068</v>
       </c>
       <c r="K42">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="L42">
-        <v>0.7744427184791338</v>
+        <v>1.488599476837137</v>
       </c>
       <c r="M42">
-        <v>4.716977389422476</v>
+        <v>9.066764922183326</v>
       </c>
       <c r="P42">
-        <v>15.10011792489933</v>
+        <v>29.02477756821967</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2416,37 +2416,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0822114570808358</v>
+        <v>0.1580232198978941</v>
       </c>
       <c r="C43">
-        <v>2.385055386015763</v>
+        <v>4.584447777910539</v>
       </c>
       <c r="D43">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E43">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F43">
-        <v>0.1126470987612083</v>
+        <v>0.2165252616907057</v>
       </c>
       <c r="G43">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="J43">
-        <v>0.2334862178933274</v>
+        <v>0.4487968619386712</v>
       </c>
       <c r="K43">
-        <v>1.175922555506697</v>
+        <v>2.260306229447005</v>
       </c>
       <c r="L43">
-        <v>1.393996893262441</v>
+        <v>2.679479058306845</v>
       </c>
       <c r="M43">
-        <v>8.490559300960458</v>
+        <v>16.32017685992998</v>
       </c>
       <c r="P43">
-        <v>15.49801591286739</v>
+        <v>29.78959944928402</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,43 +2454,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.06286758482652149</v>
+        <v>0.1208412858042719</v>
       </c>
       <c r="C44">
-        <v>1.823865883423819</v>
+        <v>3.505754183108059</v>
       </c>
       <c r="D44">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E44">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F44">
-        <v>0.1126470987612083</v>
+        <v>0.2165252616907057</v>
       </c>
       <c r="G44">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H44">
-        <v>0.01522846185449685</v>
+        <v>0.02927147458259574</v>
       </c>
       <c r="I44">
-        <v>0.4291974862050879</v>
+        <v>0.8249843896516958</v>
       </c>
       <c r="J44">
-        <v>0.3735779486293237</v>
+        <v>0.7180749791018738</v>
       </c>
       <c r="K44">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="L44">
-        <v>1.781218252502007</v>
+        <v>3.423778796725414</v>
       </c>
       <c r="M44">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="P44">
-        <v>18.56444390970933</v>
+        <v>35.68375146716583</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2498,43 +2498,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1902147438340908</v>
+        <v>0.3656223519206176</v>
       </c>
       <c r="C45">
-        <v>5.518363442154119</v>
+        <v>10.60715368222438</v>
       </c>
       <c r="D45">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E45">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F45">
-        <v>0.4505883950448331</v>
+        <v>0.866101046762823</v>
       </c>
       <c r="G45">
-        <v>3.385988858648984</v>
+        <v>6.508397746265412</v>
       </c>
       <c r="H45">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I45">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J45">
-        <v>0.443623813997322</v>
+        <v>0.8527140376834754</v>
       </c>
       <c r="K45">
-        <v>2.234252855462725</v>
+        <v>4.294581835949311</v>
       </c>
       <c r="L45">
-        <v>2.942882330220708</v>
+        <v>5.656678011981119</v>
       </c>
       <c r="M45">
-        <v>17.92451407980541</v>
+        <v>34.45370670429663</v>
       </c>
       <c r="P45">
-        <v>35.96059141673646</v>
+        <v>69.12185535791858</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2542,43 +2542,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3369057750959745</v>
+        <v>0.6475853521305858</v>
       </c>
       <c r="C46">
-        <v>9.774050503476364</v>
+        <v>18.78724677614318</v>
       </c>
       <c r="F46">
-        <v>1.126470987612083</v>
+        <v>2.165252616907057</v>
       </c>
       <c r="G46">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="H46">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I46">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J46">
-        <v>0.7705045190479803</v>
+        <v>1.481029644397615</v>
       </c>
       <c r="K46">
-        <v>3.880544433172101</v>
+        <v>7.459010557175115</v>
       </c>
       <c r="L46">
-        <v>6.427874563376806</v>
+        <v>12.35537565774824</v>
       </c>
       <c r="M46">
-        <v>39.15091233220655</v>
+        <v>75.25414885412157</v>
       </c>
       <c r="N46">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O46">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P46">
-        <v>76.00134829585339</v>
+        <v>146.0864239698739</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2586,49 +2586,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.9945974317426609</v>
+        <v>1.911771111313738</v>
       </c>
       <c r="C47">
-        <v>28.85449359160247</v>
+        <v>55.46282899942751</v>
       </c>
       <c r="D47">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E47">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F47">
-        <v>1.295441635753895</v>
+        <v>2.490040509443116</v>
       </c>
       <c r="G47">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="H47">
-        <v>0.5177677030528929</v>
+        <v>0.9952301358082553</v>
       </c>
       <c r="I47">
-        <v>14.592714530973</v>
+        <v>28.04946924815766</v>
       </c>
       <c r="J47">
-        <v>1.657752147042624</v>
+        <v>3.186457719764564</v>
       </c>
       <c r="K47">
-        <v>8.34905014409755</v>
+        <v>16.04817422907374</v>
       </c>
       <c r="L47">
-        <v>6.582763107072634</v>
+        <v>12.65309555311566</v>
       </c>
       <c r="M47">
-        <v>40.09430781009105</v>
+        <v>77.06750183855829</v>
       </c>
       <c r="N47">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O47">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P47">
-        <v>114.2011268940292</v>
+        <v>219.5123457064873</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2636,49 +2636,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.188036154285805</v>
+        <v>2.283590452249959</v>
       </c>
       <c r="C48">
-        <v>34.46638861752191</v>
+        <v>66.24976494745231</v>
       </c>
       <c r="D48">
-        <v>0.005360056080898528</v>
+        <v>0.0103028622872361</v>
       </c>
       <c r="E48">
-        <v>1.938739415730131</v>
+        <v>3.726558996702827</v>
       </c>
       <c r="F48">
-        <v>0.8448532407090615</v>
+        <v>1.623939462680293</v>
       </c>
       <c r="G48">
-        <v>6.348729109966844</v>
+        <v>12.20324577424765</v>
       </c>
       <c r="H48">
-        <v>0.3350261607989307</v>
+        <v>0.6439724408171064</v>
       </c>
       <c r="I48">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="J48">
-        <v>1.517660416306628</v>
+        <v>2.917179602601362</v>
       </c>
       <c r="K48">
-        <v>7.643496610793533</v>
+        <v>14.69199049140553</v>
       </c>
       <c r="L48">
-        <v>4.87898912641854</v>
+        <v>9.378176704073965</v>
       </c>
       <c r="M48">
-        <v>29.7169575533616</v>
+        <v>57.12061900975493</v>
       </c>
       <c r="N48">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O48">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P48">
-        <v>99.55325058936593</v>
+        <v>191.3568469412363</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2686,49 +2686,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.510434025191043</v>
+        <v>2.903289353810327</v>
       </c>
       <c r="C49">
-        <v>43.81954699405433</v>
+        <v>84.22799152749363</v>
       </c>
       <c r="D49">
-        <v>0.001429348288239608</v>
+        <v>0.002747429943262959</v>
       </c>
       <c r="E49">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="F49">
-        <v>1.577059382656915</v>
+        <v>3.03135366366988</v>
       </c>
       <c r="G49">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="H49">
-        <v>0.3045692370899369</v>
+        <v>0.5854294916519147</v>
       </c>
       <c r="I49">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="J49">
-        <v>1.377568685570632</v>
+        <v>2.64790148543816</v>
       </c>
       <c r="K49">
-        <v>6.937943077489514</v>
+        <v>13.33580675373733</v>
       </c>
       <c r="L49">
-        <v>4.414323495331063</v>
+        <v>8.485017017971678</v>
       </c>
       <c r="M49">
-        <v>26.88677111970811</v>
+        <v>51.68056005644495</v>
       </c>
       <c r="N49">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O49">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P49">
-        <v>108.026887158457</v>
+        <v>207.6444956758366</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.757075144037116</v>
+        <v>0.4413337273766753</v>
       </c>
       <c r="C2">
-        <v>21.9636801732991</v>
+        <v>12.80363371342707</v>
       </c>
       <c r="D2">
-        <v>0.003312322081130111</v>
+        <v>0.00193090403489135</v>
       </c>
       <c r="E2">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="F2">
-        <v>0.9571630727075121</v>
+        <v>0.5579741323070149</v>
       </c>
       <c r="G2">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="H2">
-        <v>0.1882128459142605</v>
+        <v>0.1097178760678479</v>
       </c>
       <c r="I2">
-        <v>5.30457252411558</v>
+        <v>3.092277936538694</v>
       </c>
       <c r="J2">
-        <v>1.154288751453479</v>
+        <v>0.6728877062736562</v>
       </c>
       <c r="K2">
-        <v>5.813423124708558</v>
+        <v>3.388910224636307</v>
       </c>
       <c r="L2">
-        <v>3.52951109601478</v>
+        <v>2.057513445118694</v>
       </c>
       <c r="M2">
-        <v>21.49755383885896</v>
+        <v>12.53190735412553</v>
       </c>
       <c r="N2">
-        <v>0.09022052058663815</v>
+        <v>0.05259366781484644</v>
       </c>
       <c r="O2">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="P2">
-        <v>71.07563137129064</v>
+        <v>41.43323627225624</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.5466381385399572</v>
+        <v>0.3186603722341456</v>
       </c>
       <c r="C3">
-        <v>15.8586440724972</v>
+        <v>9.244728947688293</v>
       </c>
       <c r="D3">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E3">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F3">
-        <v>0.8701482479159199</v>
+        <v>0.5072492111881953</v>
       </c>
       <c r="G3">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="H3">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I3">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J3">
-        <v>1.388753654092468</v>
+        <v>0.8095680216104925</v>
       </c>
       <c r="K3">
-        <v>6.994274696914984</v>
+        <v>4.077282614015557</v>
       </c>
       <c r="L3">
-        <v>2.931288876351259</v>
+        <v>1.708782352725696</v>
       </c>
       <c r="M3">
-        <v>17.85390064583202</v>
+        <v>10.40785526020595</v>
       </c>
       <c r="N3">
-        <v>0.07894295551330842</v>
+        <v>0.04601945933799063</v>
       </c>
       <c r="O3">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="P3">
-        <v>56.92655816296924</v>
+        <v>33.18509437097122</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.6474984784527968</v>
+        <v>0.3774564773616303</v>
       </c>
       <c r="C4">
-        <v>18.7847264640058</v>
+        <v>10.95047620227315</v>
       </c>
       <c r="D4">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E4">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F4">
-        <v>1.0876853098949</v>
+        <v>0.634061513985244</v>
       </c>
       <c r="G4">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="H4">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I4">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J4">
-        <v>1.316610607126625</v>
+        <v>0.7675125399683892</v>
       </c>
       <c r="K4">
-        <v>6.6309357516207</v>
+        <v>3.865475724975788</v>
       </c>
       <c r="L4">
-        <v>2.871466654384907</v>
+        <v>1.673909243486395</v>
       </c>
       <c r="M4">
-        <v>17.48953532652932</v>
+        <v>10.19545005081399</v>
       </c>
       <c r="N4">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O4">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P4">
-        <v>60.88186510939352</v>
+        <v>35.49082369167746</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.8143538555925555</v>
+        <v>0.4747241080663581</v>
       </c>
       <c r="C5">
-        <v>23.62540597588422</v>
+        <v>13.77232968516661</v>
       </c>
       <c r="D5">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E5">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F5">
-        <v>1.000670485103308</v>
+        <v>0.5833365928664247</v>
       </c>
       <c r="G5">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="H5">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I5">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J5">
-        <v>1.262503321902244</v>
+        <v>0.7359709287368116</v>
       </c>
       <c r="K5">
-        <v>6.358431542649986</v>
+        <v>3.706620558195961</v>
       </c>
       <c r="L5">
-        <v>2.691999988485851</v>
+        <v>1.569289915768496</v>
       </c>
       <c r="M5">
-        <v>16.39643936862124</v>
+        <v>9.558234422638119</v>
       </c>
       <c r="N5">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O5">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P5">
-        <v>63.74956057791561</v>
+        <v>37.16253453844382</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.8305413175538756</v>
+        <v>0.4841605200003985</v>
       </c>
       <c r="C6">
-        <v>24.09502413748438</v>
+        <v>14.04609159022344</v>
       </c>
       <c r="D6">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E6">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F6">
-        <v>1.044177897499104</v>
+        <v>0.6086990534258341</v>
       </c>
       <c r="G6">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="H6">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I6">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J6">
-        <v>1.659290080214377</v>
+        <v>0.9672760777683808</v>
       </c>
       <c r="K6">
-        <v>8.356795741768554</v>
+        <v>4.87155844791469</v>
       </c>
       <c r="L6">
-        <v>2.991111098317611</v>
+        <v>1.743655461964996</v>
       </c>
       <c r="M6">
-        <v>18.21826596513472</v>
+        <v>10.62026046959791</v>
       </c>
       <c r="N6">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O6">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P6">
-        <v>70.63442194436122</v>
+        <v>41.17603511795318</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.7421328714574362</v>
+        <v>0.4326231932837145</v>
       </c>
       <c r="C7">
-        <v>21.53018648566819</v>
+        <v>12.55093041645153</v>
       </c>
       <c r="D7">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E7">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F7">
-        <v>1.30522237187388</v>
+        <v>0.760873816782293</v>
       </c>
       <c r="G7">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H7">
-        <v>0.1293963315660541</v>
+        <v>0.07543103979664546</v>
       </c>
       <c r="I7">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="J7">
-        <v>1.821611935887523</v>
+        <v>1.061900911463114</v>
       </c>
       <c r="K7">
-        <v>9.174308368680693</v>
+        <v>5.348123948254172</v>
       </c>
       <c r="L7">
-        <v>2.691999988485851</v>
+        <v>1.569289915768496</v>
       </c>
       <c r="M7">
-        <v>16.39643936862124</v>
+        <v>9.558234422638119</v>
       </c>
       <c r="N7">
-        <v>0.1804410411732763</v>
+        <v>0.1051873356296929</v>
       </c>
       <c r="O7">
-        <v>2.851709504139907</v>
+        <v>1.662391896986985</v>
       </c>
       <c r="P7">
-        <v>71.07948052478197</v>
+        <v>41.4354801198729</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.8180894237374754</v>
+        <v>0.476901741589598</v>
       </c>
       <c r="C8">
-        <v>23.73377939779194</v>
+        <v>13.8355055094105</v>
       </c>
       <c r="D8">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E8">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F8">
-        <v>1.696789083436044</v>
+        <v>0.9891359618169809</v>
       </c>
       <c r="G8">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="H8">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I8">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J8">
-        <v>1.262503321902244</v>
+        <v>0.7359709287368116</v>
       </c>
       <c r="K8">
-        <v>6.358431542649986</v>
+        <v>3.706620558195961</v>
       </c>
       <c r="L8">
-        <v>2.213422212755033</v>
+        <v>1.290305041854096</v>
       </c>
       <c r="M8">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="N8">
-        <v>0.09022052058663815</v>
+        <v>0.05259366781484644</v>
       </c>
       <c r="O8">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="P8">
-        <v>68.85191491462177</v>
+        <v>40.13693024480278</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.8977815441624351</v>
+        <v>0.523357923418722</v>
       </c>
       <c r="C9">
-        <v>26.04574573182343</v>
+        <v>15.18325642661334</v>
       </c>
       <c r="D9">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E9">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F9">
-        <v>1.566266846248656</v>
+        <v>0.9130485801387518</v>
       </c>
       <c r="G9">
-        <v>11.76985947572296</v>
+        <v>6.861189399801296</v>
       </c>
       <c r="H9">
-        <v>0.2470293602624668</v>
+        <v>0.1440047123390505</v>
       </c>
       <c r="I9">
-        <v>6.962251437901697</v>
+        <v>4.058614791707037</v>
       </c>
       <c r="J9">
-        <v>1.478932462799771</v>
+        <v>0.8621373736631222</v>
       </c>
       <c r="K9">
-        <v>7.448448378532841</v>
+        <v>4.342041225315268</v>
       </c>
       <c r="L9">
-        <v>1.734844437024214</v>
+        <v>1.011320167939697</v>
       </c>
       <c r="M9">
-        <v>10.56659425977813</v>
+        <v>6.159751072366789</v>
       </c>
       <c r="N9">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O9">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P9">
-        <v>70.26599279251398</v>
+        <v>40.96126091470583</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.278809494944272</v>
+        <v>0.7454765427892199</v>
       </c>
       <c r="C10">
-        <v>37.09983476641145</v>
+        <v>21.62719049948948</v>
       </c>
       <c r="D10">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E10">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F10">
-        <v>1.30522237187388</v>
+        <v>0.760873816782293</v>
       </c>
       <c r="G10">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H10">
-        <v>0.211739451653543</v>
+        <v>0.1234326105763289</v>
       </c>
       <c r="I10">
-        <v>5.967644089630027</v>
+        <v>3.478812678606031</v>
       </c>
       <c r="J10">
-        <v>1.244467560160783</v>
+        <v>0.7254570583262857</v>
       </c>
       <c r="K10">
-        <v>6.267596806326416</v>
+        <v>3.653668835936018</v>
       </c>
       <c r="L10">
-        <v>1.375911105226101</v>
+        <v>0.8020815125038976</v>
       </c>
       <c r="M10">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="N10">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O10">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P10">
-        <v>74.59891957555639</v>
+        <v>43.48712210916156</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,43 +930,43 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.275073926799353</v>
+        <v>0.7432989092659795</v>
       </c>
       <c r="C11">
-        <v>36.99146134450371</v>
+        <v>21.56401467524557</v>
       </c>
       <c r="D11">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E11">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F11">
-        <v>1.0876853098949</v>
+        <v>0.634061513985244</v>
       </c>
       <c r="G11">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="H11">
-        <v>0.3176091774803145</v>
+        <v>0.1851489158644934</v>
       </c>
       <c r="I11">
-        <v>8.95146613444504</v>
+        <v>5.218219017909045</v>
       </c>
       <c r="J11">
-        <v>0.7214304696584248</v>
+        <v>0.4205548164210353</v>
       </c>
       <c r="K11">
-        <v>3.63338945294285</v>
+        <v>2.118068890397692</v>
       </c>
       <c r="L11">
-        <v>1.435733327192454</v>
+        <v>0.8369546217431976</v>
       </c>
       <c r="M11">
-        <v>8.744767663264662</v>
+        <v>5.097725025406997</v>
       </c>
       <c r="P11">
-        <v>72.13305274811867</v>
+        <v>42.04965555549242</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,43 +974,43 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.9911707477854347</v>
+        <v>0.5777987614997262</v>
       </c>
       <c r="C12">
-        <v>28.75508127951656</v>
+        <v>16.76265203271043</v>
       </c>
       <c r="D12">
-        <v>0.004140402601412637</v>
+        <v>0.002413630043614188</v>
       </c>
       <c r="E12">
-        <v>1.497589129516089</v>
+        <v>0.873013197981472</v>
       </c>
       <c r="F12">
-        <v>0.7831334231243281</v>
+        <v>0.4565242900693759</v>
       </c>
       <c r="G12">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="H12">
-        <v>0.2705559660017494</v>
+        <v>0.1577194468475314</v>
       </c>
       <c r="I12">
-        <v>7.625323003416145</v>
+        <v>4.445149533774374</v>
       </c>
       <c r="J12">
-        <v>0.8476808018486492</v>
+        <v>0.4941519092947163</v>
       </c>
       <c r="K12">
-        <v>4.269232607207848</v>
+        <v>2.488730946217288</v>
       </c>
       <c r="L12">
-        <v>1.375911105226101</v>
+        <v>0.8020815125038976</v>
       </c>
       <c r="M12">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="P12">
-        <v>60.68515054806777</v>
+        <v>35.37614977685811</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,49 +1018,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7944308254863159</v>
+        <v>0.4631100626090772</v>
       </c>
       <c r="C13">
-        <v>23.04741439237634</v>
+        <v>13.4353919558659</v>
       </c>
       <c r="D13">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E13">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F13">
-        <v>0.9571630727075121</v>
+        <v>0.5579741323070149</v>
       </c>
       <c r="G13">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="H13">
-        <v>0.1882128459142605</v>
+        <v>0.1097178760678479</v>
       </c>
       <c r="I13">
-        <v>5.30457252411558</v>
+        <v>3.092277936538694</v>
       </c>
       <c r="J13">
-        <v>0.5050013287608973</v>
+        <v>0.2943883714947246</v>
       </c>
       <c r="K13">
-        <v>2.543372617059995</v>
+        <v>1.482648223278385</v>
       </c>
       <c r="L13">
-        <v>2.45271110062044</v>
+        <v>1.429797478811296</v>
       </c>
       <c r="M13">
-        <v>14.93897809141046</v>
+        <v>8.708613585070287</v>
       </c>
       <c r="N13">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O13">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P13">
-        <v>59.2153264329174</v>
+        <v>34.51932207562317</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5939553350422768</v>
+        <v>0.3462437301951877</v>
       </c>
       <c r="C14">
-        <v>17.23137408332839</v>
+        <v>10.04495605477748</v>
       </c>
       <c r="D14">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E14">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F14">
-        <v>0.5220889487495519</v>
+        <v>0.304349526712917</v>
       </c>
       <c r="G14">
-        <v>3.923286491907657</v>
+        <v>2.287063133267099</v>
       </c>
       <c r="H14">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I14">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J14">
-        <v>0.3787509965706731</v>
+        <v>0.2207912786210435</v>
       </c>
       <c r="K14">
-        <v>1.907529462794996</v>
+        <v>1.111986167458788</v>
       </c>
       <c r="L14">
-        <v>2.512533322586793</v>
+        <v>1.464670588050595</v>
       </c>
       <c r="M14">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="P14">
-        <v>46.26347623946462</v>
+        <v>26.96909622641658</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3909894658349579</v>
+        <v>0.2279256420991383</v>
       </c>
       <c r="C15">
-        <v>11.34308482634196</v>
+        <v>6.61240293752648</v>
       </c>
       <c r="D15">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E15">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F15">
-        <v>0.5220889487495519</v>
+        <v>0.304349526712917</v>
       </c>
       <c r="G15">
-        <v>3.923286491907657</v>
+        <v>2.287063133267099</v>
       </c>
       <c r="H15">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I15">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J15">
-        <v>0.4508940435365155</v>
+        <v>0.262846760263147</v>
       </c>
       <c r="K15">
-        <v>2.270868408089281</v>
+        <v>1.323793056498558</v>
       </c>
       <c r="L15">
-        <v>1.555377771125158</v>
+        <v>0.9067008402217975</v>
       </c>
       <c r="M15">
-        <v>9.473498301870054</v>
+        <v>5.522535444190913</v>
       </c>
       <c r="P15">
-        <v>34.12104835164975</v>
+        <v>19.89071965925629</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.1954947329174789</v>
+        <v>0.1139628210495691</v>
       </c>
       <c r="C16">
-        <v>5.671542413170981</v>
+        <v>3.30620146876324</v>
       </c>
       <c r="D16">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E16">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F16">
-        <v>0.304551886770572</v>
+        <v>0.1775372239158684</v>
       </c>
       <c r="G16">
-        <v>2.288583786946133</v>
+        <v>1.334120161072474</v>
       </c>
       <c r="H16">
-        <v>0.08234312008748891</v>
+        <v>0.04800157077968346</v>
       </c>
       <c r="I16">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="J16">
-        <v>0.1983933791560668</v>
+        <v>0.1156525745157847</v>
       </c>
       <c r="K16">
-        <v>0.9991820995592837</v>
+        <v>0.5824689448593653</v>
       </c>
       <c r="L16">
-        <v>1.196444439327044</v>
+        <v>0.6974621847859984</v>
       </c>
       <c r="M16">
-        <v>7.287306386053887</v>
+        <v>4.248104187839163</v>
       </c>
       <c r="P16">
-        <v>21.44563044256</v>
+        <v>12.50163883163188</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1419515895069592</v>
+        <v>0.08275007388312663</v>
       </c>
       <c r="C17">
-        <v>4.118190032493581</v>
+        <v>2.400681321267573</v>
       </c>
       <c r="D17">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E17">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F17">
-        <v>0.04350741239579597</v>
+        <v>0.02536246055940976</v>
       </c>
       <c r="G17">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="H17">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I17">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J17">
-        <v>0.2164291408975274</v>
+        <v>0.1261664449263106</v>
       </c>
       <c r="K17">
-        <v>1.090016835882855</v>
+        <v>0.6354206671193077</v>
       </c>
       <c r="L17">
-        <v>0.777688885562579</v>
+        <v>0.4533504201108988</v>
       </c>
       <c r="M17">
-        <v>4.736749150935027</v>
+        <v>2.761267722095456</v>
       </c>
       <c r="P17">
-        <v>13.96889143393029</v>
+        <v>8.143105704120597</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,43 +1244,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.08342768856987955</v>
+        <v>0.04863381535236388</v>
       </c>
       <c r="C18">
-        <v>2.420339755939208</v>
+        <v>1.410926741446733</v>
       </c>
       <c r="D18">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E18">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F18">
-        <v>0.1740296495831839</v>
+        <v>0.101449842237639</v>
       </c>
       <c r="G18">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H18">
-        <v>0.03528990860892383</v>
+        <v>0.02057210176272149</v>
       </c>
       <c r="I18">
-        <v>0.994607348271671</v>
+        <v>0.5798021131010053</v>
       </c>
       <c r="J18">
-        <v>0.1803576174146062</v>
+        <v>0.1051387041052588</v>
       </c>
       <c r="K18">
-        <v>0.9083473632357124</v>
+        <v>0.529517222599423</v>
       </c>
       <c r="L18">
-        <v>0.777688885562579</v>
+        <v>0.4533504201108988</v>
       </c>
       <c r="M18">
-        <v>4.736749150935027</v>
+        <v>2.761267722095456</v>
       </c>
       <c r="P18">
-        <v>13.02021376206634</v>
+        <v>7.59007810005728</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,37 +1288,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.06599503722691967</v>
+        <v>0.03847152557724307</v>
       </c>
       <c r="C19">
-        <v>1.914597120369823</v>
+        <v>1.116106228308609</v>
       </c>
       <c r="D19">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E19">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F19">
-        <v>0.04350741239579597</v>
+        <v>0.02536246055940976</v>
       </c>
       <c r="G19">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="J19">
-        <v>0.1803576174146062</v>
+        <v>0.1051387041052588</v>
       </c>
       <c r="K19">
-        <v>0.9083473632357124</v>
+        <v>0.529517222599423</v>
       </c>
       <c r="L19">
-        <v>0.8375111075289313</v>
+        <v>0.4882235293501987</v>
       </c>
       <c r="M19">
-        <v>5.10111447023772</v>
+        <v>2.973672931487415</v>
       </c>
       <c r="P19">
-        <v>9.979062482248814</v>
+        <v>5.817251927636518</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.05852390093707967</v>
+        <v>0.03411625853076274</v>
       </c>
       <c r="C20">
-        <v>1.697850276554371</v>
+        <v>0.9897545798208428</v>
       </c>
       <c r="D20">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E20">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F20">
-        <v>0.1740296495831839</v>
+        <v>0.101449842237639</v>
       </c>
       <c r="G20">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H20">
-        <v>0.01176330286964128</v>
+        <v>0.006857367254240495</v>
       </c>
       <c r="I20">
-        <v>0.3315357827572237</v>
+        <v>0.1932673710336684</v>
       </c>
       <c r="J20">
-        <v>0.3066079496048305</v>
+        <v>0.17873579697894</v>
       </c>
       <c r="K20">
-        <v>1.544190517500711</v>
+        <v>0.9001792784190192</v>
       </c>
       <c r="L20">
-        <v>1.136622217360692</v>
+        <v>0.6625890755466983</v>
       </c>
       <c r="M20">
-        <v>6.922941066751192</v>
+        <v>4.035698978447206</v>
       </c>
       <c r="P20">
-        <v>13.79217273431164</v>
+        <v>8.040088291629733</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,43 +1370,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1207833700190794</v>
+        <v>0.07041015058476562</v>
       </c>
       <c r="C21">
-        <v>3.504073975016468</v>
+        <v>2.042684983885568</v>
       </c>
       <c r="D21">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E21">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F21">
-        <v>0.261044474374776</v>
+        <v>0.1521747633564585</v>
       </c>
       <c r="G21">
-        <v>1.961643245953828</v>
+        <v>1.143531566633549</v>
       </c>
       <c r="H21">
-        <v>0.03528990860892383</v>
+        <v>0.02057210176272149</v>
       </c>
       <c r="I21">
-        <v>0.994607348271671</v>
+        <v>0.5798021131010053</v>
       </c>
       <c r="J21">
-        <v>0.2885721878633699</v>
+        <v>0.1682219265684141</v>
       </c>
       <c r="K21">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="L21">
-        <v>2.572355544553147</v>
+        <v>1.499543697289896</v>
       </c>
       <c r="M21">
-        <v>15.66770873001585</v>
+        <v>9.133424003854202</v>
       </c>
       <c r="P21">
-        <v>27.15978047227776</v>
+        <v>15.83267822880067</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,43 +1414,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3175232923181983</v>
+        <v>0.1850988494754147</v>
       </c>
       <c r="C22">
-        <v>9.211740862156695</v>
+        <v>5.369945060730104</v>
       </c>
       <c r="D22">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E22">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F22">
-        <v>0.8701482479159199</v>
+        <v>0.5072492111881953</v>
       </c>
       <c r="G22">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="H22">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I22">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J22">
-        <v>0.4689298052779761</v>
+        <v>0.2733606306736728</v>
       </c>
       <c r="K22">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="L22">
-        <v>4.845599979274533</v>
+        <v>2.824721848383292</v>
       </c>
       <c r="M22">
-        <v>29.51359086351825</v>
+        <v>17.20482196074862</v>
       </c>
       <c r="P22">
-        <v>57.51808469178579</v>
+        <v>33.52992223893249</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,49 +1458,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.729680977641036</v>
+        <v>0.4253644148729142</v>
       </c>
       <c r="C23">
-        <v>21.16894174597575</v>
+        <v>12.34034433563859</v>
       </c>
       <c r="D23">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E23">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F23">
-        <v>0.7396260107285323</v>
+        <v>0.4311618295099661</v>
       </c>
       <c r="G23">
-        <v>5.557989196869178</v>
+        <v>3.240006105461723</v>
       </c>
       <c r="H23">
-        <v>0.3999522975678034</v>
+        <v>0.2331504866441769</v>
       </c>
       <c r="I23">
-        <v>11.27221661374561</v>
+        <v>6.571090615144726</v>
       </c>
       <c r="J23">
-        <v>1.262503321902244</v>
+        <v>0.7359709287368116</v>
       </c>
       <c r="K23">
-        <v>6.358431542649986</v>
+        <v>3.706620558195961</v>
       </c>
       <c r="L23">
-        <v>4.426844425510066</v>
+        <v>2.580610083708192</v>
       </c>
       <c r="M23">
-        <v>26.96303362839938</v>
+        <v>15.71798549500491</v>
       </c>
       <c r="N23">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O23">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P23">
-        <v>80.2379492101649</v>
+        <v>46.77437039228217</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1508,49 +1508,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.9438535512831147</v>
+        <v>0.550215403538684</v>
       </c>
       <c r="C24">
-        <v>27.38235126868536</v>
+        <v>15.96242492562124</v>
       </c>
       <c r="D24">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E24">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F24">
-        <v>0.7396260107285323</v>
+        <v>0.4311618295099661</v>
       </c>
       <c r="G24">
-        <v>5.557989196869178</v>
+        <v>3.240006105461723</v>
       </c>
       <c r="H24">
-        <v>0.2470293602624668</v>
+        <v>0.1440047123390505</v>
       </c>
       <c r="I24">
-        <v>6.962251437901697</v>
+        <v>4.058614791707037</v>
       </c>
       <c r="J24">
-        <v>1.136252989712019</v>
+        <v>0.6623738358631306</v>
       </c>
       <c r="K24">
-        <v>5.722588388384987</v>
+        <v>3.335958502376365</v>
       </c>
       <c r="L24">
-        <v>3.589333317981135</v>
+        <v>2.092386554357994</v>
       </c>
       <c r="M24">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="N24">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O24">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P24">
-        <v>75.60203943128663</v>
+        <v>44.07188655219189</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1558,49 +1558,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.109463739041235</v>
+        <v>0.6467571564023321</v>
       </c>
       <c r="C25">
-        <v>32.18690630659457</v>
+        <v>18.76321980043341</v>
       </c>
       <c r="D25">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E25">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F25">
-        <v>1.261714959478084</v>
+        <v>0.7355113562228833</v>
       </c>
       <c r="G25">
-        <v>9.481275688776835</v>
+        <v>5.527069238728821</v>
       </c>
       <c r="H25">
-        <v>0.2235027545231842</v>
+        <v>0.1302899778305694</v>
       </c>
       <c r="I25">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="J25">
-        <v>0.9558953722974127</v>
+        <v>0.5572351317578715</v>
       </c>
       <c r="K25">
-        <v>4.814241025149275</v>
+        <v>2.806441279776942</v>
       </c>
       <c r="L25">
-        <v>2.871466654384907</v>
+        <v>1.673909243486395</v>
       </c>
       <c r="M25">
-        <v>17.48953532652932</v>
+        <v>10.19545005081399</v>
       </c>
       <c r="N25">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O25">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P25">
-        <v>78.33081466436035</v>
+        <v>45.6626144399992</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1608,49 +1608,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.9040074910706352</v>
+        <v>0.526987312624122</v>
       </c>
       <c r="C26">
-        <v>26.22636810166963</v>
+        <v>15.28854946701982</v>
       </c>
       <c r="D26">
-        <v>0.004416429441506813</v>
+        <v>0.002574538713188467</v>
       </c>
       <c r="E26">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="F26">
-        <v>1.131192722290696</v>
+        <v>0.6594239745446541</v>
       </c>
       <c r="G26">
-        <v>8.500454065799921</v>
+        <v>4.955303455412047</v>
       </c>
       <c r="H26">
-        <v>0.2235027545231842</v>
+        <v>0.1302899778305694</v>
       </c>
       <c r="I26">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="J26">
-        <v>1.44286093931685</v>
+        <v>0.8411096328420706</v>
       </c>
       <c r="K26">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="L26">
-        <v>4.30719998157736</v>
+        <v>2.510863865229593</v>
       </c>
       <c r="M26">
-        <v>26.23430298979399</v>
+        <v>15.293175076221</v>
       </c>
       <c r="N26">
-        <v>0.07894295551330842</v>
+        <v>0.04601945933799063</v>
       </c>
       <c r="O26">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="P26">
-        <v>85.4642585221484</v>
+        <v>49.82102512298884</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1658,49 +1658,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.6537244253609964</v>
+        <v>0.3810858665670305</v>
       </c>
       <c r="C27">
-        <v>18.96534883385201</v>
+        <v>11.05576924267962</v>
       </c>
       <c r="D27">
-        <v>0.003312322081130111</v>
+        <v>0.00193090403489135</v>
       </c>
       <c r="E27">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="F27">
-        <v>1.044177897499104</v>
+        <v>0.6086990534258341</v>
       </c>
       <c r="G27">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="H27">
-        <v>0.08234312008748891</v>
+        <v>0.04800157077968346</v>
       </c>
       <c r="I27">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="J27">
-        <v>1.74946888892168</v>
+        <v>1.01984542982101</v>
       </c>
       <c r="K27">
-        <v>8.81096942338641</v>
+        <v>5.136317059214403</v>
       </c>
       <c r="L27">
-        <v>3.589333317981135</v>
+        <v>2.092386554357994</v>
       </c>
       <c r="M27">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="N27">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O27">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P27">
-        <v>69.26304860855281</v>
+        <v>40.37659887878426</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1708,49 +1708,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.7060223793898762</v>
+        <v>0.4115727358923932</v>
       </c>
       <c r="C28">
-        <v>20.48257674056017</v>
+        <v>11.94023078209399</v>
       </c>
       <c r="D28">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E28">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F28">
-        <v>1.174700134686492</v>
+        <v>0.6847864351040636</v>
       </c>
       <c r="G28">
-        <v>8.827394606792224</v>
+        <v>5.145892049850972</v>
       </c>
       <c r="H28">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I28">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J28">
-        <v>1.44286093931685</v>
+        <v>0.8411096328420706</v>
       </c>
       <c r="K28">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="L28">
-        <v>3.110755542250316</v>
+        <v>1.813401680443595</v>
       </c>
       <c r="M28">
-        <v>18.94699660374011</v>
+        <v>11.04507088838183</v>
       </c>
       <c r="N28">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O28">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P28">
-        <v>66.28139323296062</v>
+        <v>38.63845559006697</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1758,49 +1758,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.7794885529066358</v>
+        <v>0.4543995285161162</v>
       </c>
       <c r="C29">
-        <v>22.61392070474545</v>
+        <v>13.18268865889037</v>
       </c>
       <c r="D29">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E29">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F29">
-        <v>0.8701482479159199</v>
+        <v>0.5072492111881953</v>
       </c>
       <c r="G29">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="H29">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I29">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J29">
-        <v>1.478932462799771</v>
+        <v>0.8621373736631222</v>
       </c>
       <c r="K29">
-        <v>7.448448378532841</v>
+        <v>4.342041225315268</v>
       </c>
       <c r="L29">
-        <v>2.15359999078868</v>
+        <v>1.255431932614797</v>
       </c>
       <c r="M29">
-        <v>13.11715149489699</v>
+        <v>7.646587538110498</v>
       </c>
       <c r="N29">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O29">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P29">
-        <v>59.9494983829553</v>
+        <v>34.94730448370727</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1808,49 +1808,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.8566902945683154</v>
+        <v>0.4994039546630801</v>
       </c>
       <c r="C30">
-        <v>24.85363809083844</v>
+        <v>14.48832235993063</v>
       </c>
       <c r="D30">
-        <v>0.003312322081130111</v>
+        <v>0.00193090403489135</v>
       </c>
       <c r="E30">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="F30">
-        <v>1.0876853098949</v>
+        <v>0.634061513985244</v>
       </c>
       <c r="G30">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="H30">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I30">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J30">
-        <v>1.17232451319494</v>
+        <v>0.6834015766841821</v>
       </c>
       <c r="K30">
-        <v>5.904257861032131</v>
+        <v>3.44186194689625</v>
       </c>
       <c r="L30">
-        <v>2.512533322586793</v>
+        <v>1.464670588050595</v>
       </c>
       <c r="M30">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="N30">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O30">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P30">
-        <v>64.34457113305417</v>
+        <v>37.50939340469514</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1858,49 +1858,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.8019019617761557</v>
+        <v>0.4674653296555576</v>
       </c>
       <c r="C31">
-        <v>23.2641612361918</v>
+        <v>13.56174360435366</v>
       </c>
       <c r="D31">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E31">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F31">
-        <v>1.0876853098949</v>
+        <v>0.634061513985244</v>
       </c>
       <c r="G31">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="H31">
-        <v>0.09410642295713023</v>
+        <v>0.05485893803392396</v>
       </c>
       <c r="I31">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="J31">
-        <v>1.767504650663141</v>
+        <v>1.030359300231536</v>
       </c>
       <c r="K31">
-        <v>8.901804159709979</v>
+        <v>5.189268781474344</v>
       </c>
       <c r="L31">
-        <v>2.392888878654088</v>
+        <v>1.394924369571997</v>
       </c>
       <c r="M31">
-        <v>14.57461277210777</v>
+        <v>8.496208375678327</v>
       </c>
       <c r="N31">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O31">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P31">
-        <v>65.55904994350125</v>
+        <v>38.21736864923483</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1908,49 +1908,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.9077430592155549</v>
+        <v>0.5291649461473622</v>
       </c>
       <c r="C32">
-        <v>26.33474152357735</v>
+        <v>15.3517252912637</v>
       </c>
       <c r="D32">
-        <v>0.003588348921224285</v>
+        <v>0.00209181270446563</v>
       </c>
       <c r="E32">
-        <v>1.297910578913944</v>
+        <v>0.7566114382506091</v>
       </c>
       <c r="F32">
-        <v>0.8266408355201241</v>
+        <v>0.4818867506287855</v>
       </c>
       <c r="G32">
-        <v>6.21187027885379</v>
+        <v>3.621183294339573</v>
       </c>
       <c r="H32">
-        <v>0.09410642295713023</v>
+        <v>0.05485893803392396</v>
       </c>
       <c r="I32">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="J32">
-        <v>1.244467560160783</v>
+        <v>0.7254570583262857</v>
       </c>
       <c r="K32">
-        <v>6.267596806326416</v>
+        <v>3.653668835936018</v>
       </c>
       <c r="L32">
-        <v>2.512533322586793</v>
+        <v>1.464670588050595</v>
       </c>
       <c r="M32">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="N32">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O32">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P32">
-        <v>64.22535663705028</v>
+        <v>37.43989782252854</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1958,49 +1958,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.9849448008772348</v>
+        <v>0.5741693722943262</v>
       </c>
       <c r="C33">
-        <v>28.57445890967037</v>
+        <v>16.65735899230396</v>
       </c>
       <c r="D33">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E33">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F33">
-        <v>1.522759433852861</v>
+        <v>0.8876861195793422</v>
       </c>
       <c r="G33">
-        <v>11.44291893473067</v>
+        <v>6.670600805362371</v>
       </c>
       <c r="H33">
-        <v>0.2235027545231842</v>
+        <v>0.1302899778305694</v>
       </c>
       <c r="I33">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="J33">
-        <v>1.515003986282692</v>
+        <v>0.883165114484174</v>
       </c>
       <c r="K33">
-        <v>7.630117851179984</v>
+        <v>4.447944669835152</v>
       </c>
       <c r="L33">
-        <v>1.495555549158806</v>
+        <v>0.8718277309824979</v>
       </c>
       <c r="M33">
-        <v>9.109132982567358</v>
+        <v>5.310130234798956</v>
       </c>
       <c r="N33">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O33">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P33">
-        <v>70.5460445377701</v>
+        <v>41.12451588558381</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.177949155031434</v>
+        <v>0.6866804376617351</v>
       </c>
       <c r="C34">
-        <v>34.17375237490288</v>
+        <v>19.92144324490462</v>
       </c>
       <c r="D34">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E34">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F34">
-        <v>1.392237196665471</v>
+        <v>0.8115987379011124</v>
       </c>
       <c r="G34">
-        <v>10.46209731175375</v>
+        <v>6.098835022045596</v>
       </c>
       <c r="H34">
-        <v>0.2587926631321081</v>
+        <v>0.1508620795932909</v>
       </c>
       <c r="I34">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="J34">
-        <v>1.028038419263255</v>
+        <v>0.5992906133999752</v>
       </c>
       <c r="K34">
-        <v>5.17757997044356</v>
+        <v>3.01824816881671</v>
       </c>
       <c r="L34">
-        <v>0.9571555514616356</v>
+        <v>0.5579697478287985</v>
       </c>
       <c r="M34">
-        <v>5.829845108843107</v>
+        <v>3.398483350271333</v>
       </c>
       <c r="N34">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O34">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P34">
-        <v>69.04201270479103</v>
+        <v>40.24774694108748</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,43 +2058,43 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.240208624113433</v>
+        <v>0.7229743297157382</v>
       </c>
       <c r="C35">
-        <v>35.97997607336496</v>
+        <v>20.97437364896935</v>
       </c>
       <c r="D35">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E35">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F35">
-        <v>1.000670485103308</v>
+        <v>0.5833365928664247</v>
       </c>
       <c r="G35">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="H35">
-        <v>0.3176091774803145</v>
+        <v>0.1851489158644934</v>
       </c>
       <c r="I35">
-        <v>8.95146613444504</v>
+        <v>5.218219017909045</v>
       </c>
       <c r="J35">
-        <v>0.5410728522438187</v>
+        <v>0.3154161123157764</v>
       </c>
       <c r="K35">
-        <v>2.725042089707138</v>
+        <v>1.588551667798269</v>
       </c>
       <c r="L35">
-        <v>1.316088883259749</v>
+        <v>0.767208403264598</v>
       </c>
       <c r="M35">
-        <v>8.016037024659274</v>
+        <v>4.67291460662308</v>
       </c>
       <c r="P35">
-        <v>68.30861090218822</v>
+        <v>39.82021348716709</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2102,43 +2102,43 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.158026124925194</v>
+        <v>0.6750663922044542</v>
       </c>
       <c r="C36">
-        <v>33.59576079139498</v>
+        <v>19.5845055156039</v>
       </c>
       <c r="D36">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E36">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F36">
-        <v>1.044177897499104</v>
+        <v>0.6086990534258341</v>
       </c>
       <c r="G36">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="H36">
-        <v>0.2352660573928256</v>
+        <v>0.13714734508481</v>
       </c>
       <c r="I36">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="J36">
-        <v>0.7575019931413461</v>
+        <v>0.441582557242087</v>
       </c>
       <c r="K36">
-        <v>3.815058925589992</v>
+        <v>2.223972334917576</v>
       </c>
       <c r="L36">
-        <v>1.974133324889623</v>
+        <v>1.150812604896897</v>
       </c>
       <c r="M36">
-        <v>12.02405553698891</v>
+        <v>7.009371909934623</v>
       </c>
       <c r="P36">
-        <v>69.58184580148759</v>
+        <v>40.56244034319278</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2146,43 +2146,43 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7172290838246359</v>
+        <v>0.4181056364621133</v>
       </c>
       <c r="C37">
-        <v>20.80769700628334</v>
+        <v>12.12975825482564</v>
       </c>
       <c r="D37">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E37">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F37">
-        <v>0.9571630727075121</v>
+        <v>0.5579741323070149</v>
       </c>
       <c r="G37">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="H37">
-        <v>0.2823192688713906</v>
+        <v>0.1645768141017719</v>
       </c>
       <c r="I37">
-        <v>7.956858786173368</v>
+        <v>4.638416904808042</v>
       </c>
       <c r="J37">
-        <v>0.3607152348292124</v>
+        <v>0.2102774082105177</v>
       </c>
       <c r="K37">
-        <v>1.816694726471425</v>
+        <v>1.059034445198846</v>
       </c>
       <c r="L37">
-        <v>2.033955546855976</v>
+        <v>1.185685714136197</v>
       </c>
       <c r="M37">
-        <v>12.3884208562916</v>
+        <v>7.22177711932658</v>
       </c>
       <c r="P37">
-        <v>55.61501380769201</v>
+        <v>32.42053518091813</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.6151235545301567</v>
+        <v>0.3585836534935489</v>
       </c>
       <c r="C38">
-        <v>17.84549014080551</v>
+        <v>10.40295239215949</v>
       </c>
       <c r="D38">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E38">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F38">
-        <v>0.7831334231243281</v>
+        <v>0.4565242900693759</v>
       </c>
       <c r="G38">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="H38">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I38">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J38">
-        <v>0.4869655670194367</v>
+        <v>0.2838745010841988</v>
       </c>
       <c r="K38">
-        <v>2.452537880736423</v>
+        <v>1.429696501018442</v>
       </c>
       <c r="L38">
-        <v>1.974133324889623</v>
+        <v>1.150812604896897</v>
       </c>
       <c r="M38">
-        <v>12.02405553698891</v>
+        <v>7.009371909934623</v>
       </c>
       <c r="P38">
-        <v>46.40039774149502</v>
+        <v>27.04891403225136</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,49 +2234,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.4270999579025177</v>
+        <v>0.2489760994904599</v>
       </c>
       <c r="C39">
-        <v>12.39069457144998</v>
+        <v>7.223102571884017</v>
       </c>
       <c r="D39">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E39">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F39">
-        <v>0.4785815363537561</v>
+        <v>0.2789870661535074</v>
       </c>
       <c r="G39">
-        <v>3.59634595091535</v>
+        <v>2.096474538828173</v>
       </c>
       <c r="H39">
-        <v>0.1529229373053366</v>
+        <v>0.08914577430512644</v>
       </c>
       <c r="I39">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="J39">
-        <v>0.2885721878633699</v>
+        <v>0.1682219265684141</v>
       </c>
       <c r="K39">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="L39">
-        <v>1.61519999309151</v>
+        <v>0.9415739494610974</v>
       </c>
       <c r="M39">
-        <v>9.837863621172746</v>
+        <v>5.734940653582871</v>
       </c>
       <c r="N39">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O39">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P39">
-        <v>36.14172535213402</v>
+        <v>21.06866470139905</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2284,43 +2284,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2664705276709586</v>
+        <v>0.1553378579911324</v>
       </c>
       <c r="C40">
-        <v>7.730637429417771</v>
+        <v>4.506542129397026</v>
       </c>
       <c r="D40">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E40">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F40">
-        <v>0.1740296495831839</v>
+        <v>0.101449842237639</v>
       </c>
       <c r="G40">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H40">
-        <v>0.08234312008748891</v>
+        <v>0.04800157077968346</v>
       </c>
       <c r="I40">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="J40">
-        <v>0.2705364261219094</v>
+        <v>0.1577080561578882</v>
       </c>
       <c r="K40">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="L40">
-        <v>0.777688885562579</v>
+        <v>0.4533504201108988</v>
       </c>
       <c r="M40">
-        <v>4.736749150935027</v>
+        <v>2.761267722095456</v>
       </c>
       <c r="P40">
-        <v>19.93052659677277</v>
+        <v>11.61841550447529</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2328,43 +2328,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1431967788885992</v>
+        <v>0.08347595172420673</v>
       </c>
       <c r="C41">
-        <v>4.15431450646282</v>
+        <v>2.421739929348869</v>
       </c>
       <c r="D41">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E41">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F41">
-        <v>0.1740296495831839</v>
+        <v>0.101449842237639</v>
       </c>
       <c r="G41">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H41">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I41">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J41">
-        <v>0.2885721878633699</v>
+        <v>0.1682219265684141</v>
       </c>
       <c r="K41">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="L41">
-        <v>0.8973333294952837</v>
+        <v>0.5230966385894984</v>
       </c>
       <c r="M41">
-        <v>5.465479789540416</v>
+        <v>3.186078140879373</v>
       </c>
       <c r="P41">
-        <v>17.00215384509069</v>
+        <v>9.9113330941924</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2372,43 +2372,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.08342768856987955</v>
+        <v>0.04863381535236388</v>
       </c>
       <c r="C42">
-        <v>2.420339755939208</v>
+        <v>1.410926741446733</v>
       </c>
       <c r="D42">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E42">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F42">
-        <v>0.130522237187388</v>
+        <v>0.07608738167822926</v>
       </c>
       <c r="G42">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H42">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I42">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J42">
-        <v>0.2705364261219094</v>
+        <v>0.1577080561578882</v>
       </c>
       <c r="K42">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="L42">
-        <v>0.5982222196635221</v>
+        <v>0.3487310923929992</v>
       </c>
       <c r="M42">
-        <v>3.643653193026943</v>
+        <v>2.124052093919582</v>
       </c>
       <c r="P42">
-        <v>11.66416294797613</v>
+        <v>6.799574059595386</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2416,37 +2416,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.06350465846363963</v>
+        <v>0.03701976989508297</v>
       </c>
       <c r="C43">
-        <v>1.842348172431338</v>
+        <v>1.07398901214602</v>
       </c>
       <c r="D43">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E43">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F43">
-        <v>0.08701482479159195</v>
+        <v>0.05072492111881952</v>
       </c>
       <c r="G43">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="J43">
-        <v>0.1803576174146062</v>
+        <v>0.1051387041052588</v>
       </c>
       <c r="K43">
-        <v>0.9083473632357124</v>
+        <v>0.529517222599423</v>
       </c>
       <c r="L43">
-        <v>1.07679999539434</v>
+        <v>0.6277159663073983</v>
       </c>
       <c r="M43">
-        <v>6.558575747448496</v>
+        <v>3.823293769055249</v>
       </c>
       <c r="P43">
-        <v>11.97152127401133</v>
+        <v>6.978747285315137</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,43 +2454,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.04856238588395975</v>
+        <v>0.02830923580212226</v>
       </c>
       <c r="C44">
-        <v>1.408854484800435</v>
+        <v>0.8212857151704863</v>
       </c>
       <c r="D44">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E44">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F44">
-        <v>0.08701482479159195</v>
+        <v>0.05072492111881952</v>
       </c>
       <c r="G44">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H44">
-        <v>0.01176330286964128</v>
+        <v>0.006857367254240495</v>
       </c>
       <c r="I44">
-        <v>0.3315357827572237</v>
+        <v>0.1932673710336684</v>
       </c>
       <c r="J44">
-        <v>0.2885721878633699</v>
+        <v>0.1682219265684141</v>
       </c>
       <c r="K44">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="L44">
-        <v>1.375911105226101</v>
+        <v>0.8020815125038976</v>
       </c>
       <c r="M44">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="P44">
-        <v>14.34019918773954</v>
+        <v>8.359557976108633</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2498,43 +2498,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1469323470335193</v>
+        <v>0.08565358524744689</v>
       </c>
       <c r="C45">
-        <v>4.262687928370547</v>
+        <v>2.484915753592752</v>
       </c>
       <c r="D45">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E45">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F45">
-        <v>0.3480592991663678</v>
+        <v>0.2028996844752781</v>
       </c>
       <c r="G45">
-        <v>2.615524327938437</v>
+        <v>1.524708755511399</v>
       </c>
       <c r="H45">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I45">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J45">
-        <v>0.3426794730877518</v>
+        <v>0.1997635377999917</v>
       </c>
       <c r="K45">
-        <v>1.725859990147854</v>
+        <v>1.006082722938904</v>
       </c>
       <c r="L45">
-        <v>2.273244434721384</v>
+        <v>1.325178151093397</v>
       </c>
       <c r="M45">
-        <v>13.84588213350238</v>
+        <v>8.071397956894412</v>
       </c>
       <c r="P45">
-        <v>27.77794187280841</v>
+        <v>16.19303278166815</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2542,43 +2542,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.2602445807627586</v>
+        <v>0.1517084687857321</v>
       </c>
       <c r="C46">
-        <v>7.550015059571562</v>
+        <v>4.401249088990554</v>
       </c>
       <c r="F46">
-        <v>0.8701482479159199</v>
+        <v>0.5072492111881953</v>
       </c>
       <c r="G46">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="H46">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I46">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J46">
-        <v>0.5951801374682004</v>
+        <v>0.3469577235473541</v>
       </c>
       <c r="K46">
-        <v>2.997546298677851</v>
+        <v>1.747406834578096</v>
       </c>
       <c r="L46">
-        <v>4.965244423207237</v>
+        <v>2.894468066861892</v>
       </c>
       <c r="M46">
-        <v>30.24232150212362</v>
+        <v>17.62963237953254</v>
       </c>
       <c r="N46">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O46">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P46">
-        <v>58.70762832434185</v>
+        <v>34.22336162783339</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2586,49 +2586,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.768281848471876</v>
+        <v>0.4478666279463959</v>
       </c>
       <c r="C47">
-        <v>22.28880043902226</v>
+        <v>12.99316118615872</v>
       </c>
       <c r="D47">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E47">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F47">
-        <v>1.000670485103308</v>
+        <v>0.5833365928664247</v>
       </c>
       <c r="G47">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="H47">
-        <v>0.3999522975678034</v>
+        <v>0.2331504866441769</v>
       </c>
       <c r="I47">
-        <v>11.27221661374561</v>
+        <v>6.571090615144726</v>
       </c>
       <c r="J47">
-        <v>1.280539083643704</v>
+        <v>0.7464847991473375</v>
       </c>
       <c r="K47">
-        <v>6.449266278973558</v>
+        <v>3.759572280455904</v>
       </c>
       <c r="L47">
-        <v>5.08488886713994</v>
+        <v>2.96421428534049</v>
       </c>
       <c r="M47">
-        <v>30.97105214072901</v>
+        <v>18.05444279831645</v>
       </c>
       <c r="N47">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O47">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P47">
-        <v>88.21524173251358</v>
+        <v>51.42469905647304</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2636,49 +2636,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.9177045742686751</v>
+        <v>0.5349719688760031</v>
       </c>
       <c r="C48">
-        <v>26.6237373153313</v>
+        <v>15.52019415591405</v>
       </c>
       <c r="D48">
-        <v>0.004140402601412637</v>
+        <v>0.002413630043614188</v>
       </c>
       <c r="E48">
-        <v>1.497589129516089</v>
+        <v>0.873013197981472</v>
       </c>
       <c r="F48">
-        <v>0.6526111859369402</v>
+        <v>0.3804369083911465</v>
       </c>
       <c r="G48">
-        <v>4.90410811488457</v>
+        <v>2.858828916583872</v>
       </c>
       <c r="H48">
-        <v>0.2587926631321081</v>
+        <v>0.1508620795932909</v>
       </c>
       <c r="I48">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="J48">
-        <v>1.17232451319494</v>
+        <v>0.6834015766841821</v>
       </c>
       <c r="K48">
-        <v>5.904257861032131</v>
+        <v>3.44186194689625</v>
       </c>
       <c r="L48">
-        <v>3.768799983880192</v>
+        <v>2.197005882075893</v>
       </c>
       <c r="M48">
-        <v>22.95501511606974</v>
+        <v>13.38152819169337</v>
       </c>
       <c r="N48">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O48">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P48">
-        <v>76.90041512591739</v>
+        <v>44.82876912766656</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2686,49 +2686,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.166742450596674</v>
+        <v>0.6801475370920144</v>
       </c>
       <c r="C49">
-        <v>33.84863210917968</v>
+        <v>19.73191577217297</v>
       </c>
       <c r="D49">
-        <v>0.001104107360376703</v>
+        <v>0.0006436346782971166</v>
       </c>
       <c r="E49">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="F49">
-        <v>1.218207547082288</v>
+        <v>0.7101488956634735</v>
       </c>
       <c r="G49">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="H49">
-        <v>0.2352660573928256</v>
+        <v>0.13714734508481</v>
       </c>
       <c r="I49">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="J49">
-        <v>1.064109942746177</v>
+        <v>0.6203183542210269</v>
       </c>
       <c r="K49">
-        <v>5.359249443090702</v>
+        <v>3.124151613336596</v>
       </c>
       <c r="L49">
-        <v>3.409866652082079</v>
+        <v>1.987767226640095</v>
       </c>
       <c r="M49">
-        <v>20.76882320025357</v>
+        <v>12.10709693534162</v>
       </c>
       <c r="N49">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O49">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P49">
-        <v>83.44591882299976</v>
+        <v>48.64444260069443</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.4413337273766753</v>
+        <v>0.757075144037116</v>
       </c>
       <c r="C2">
-        <v>12.80363371342707</v>
+        <v>21.9636801732991</v>
       </c>
       <c r="D2">
-        <v>0.00193090403489135</v>
+        <v>0.003312322081130111</v>
       </c>
       <c r="E2">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="F2">
-        <v>0.5579741323070149</v>
+        <v>0.9571630727075121</v>
       </c>
       <c r="G2">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="H2">
-        <v>0.1097178760678479</v>
+        <v>0.1882128459142605</v>
       </c>
       <c r="I2">
-        <v>3.092277936538694</v>
+        <v>5.30457252411558</v>
       </c>
       <c r="J2">
-        <v>0.6728877062736562</v>
+        <v>1.154288751453479</v>
       </c>
       <c r="K2">
-        <v>3.388910224636307</v>
+        <v>5.813423124708558</v>
       </c>
       <c r="L2">
-        <v>2.057513445118694</v>
+        <v>3.52951109601478</v>
       </c>
       <c r="M2">
-        <v>12.53190735412553</v>
+        <v>21.49755383885896</v>
       </c>
       <c r="N2">
-        <v>0.05259366781484644</v>
+        <v>0.09022052058663815</v>
       </c>
       <c r="O2">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="P2">
-        <v>41.43323627225624</v>
+        <v>71.07563137129064</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.3186603722341456</v>
+        <v>0.5466381385399572</v>
       </c>
       <c r="C3">
-        <v>9.244728947688293</v>
+        <v>15.8586440724972</v>
       </c>
       <c r="D3">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E3">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F3">
-        <v>0.5072492111881953</v>
+        <v>0.8701482479159199</v>
       </c>
       <c r="G3">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="H3">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I3">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J3">
-        <v>0.8095680216104925</v>
+        <v>1.388753654092468</v>
       </c>
       <c r="K3">
-        <v>4.077282614015557</v>
+        <v>6.994274696914984</v>
       </c>
       <c r="L3">
-        <v>1.708782352725696</v>
+        <v>2.931288876351259</v>
       </c>
       <c r="M3">
-        <v>10.40785526020595</v>
+        <v>17.85390064583202</v>
       </c>
       <c r="N3">
-        <v>0.04601945933799063</v>
+        <v>0.07894295551330842</v>
       </c>
       <c r="O3">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="P3">
-        <v>33.18509437097122</v>
+        <v>56.92655816296924</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.3774564773616303</v>
+        <v>0.6474984784527968</v>
       </c>
       <c r="C4">
-        <v>10.95047620227315</v>
+        <v>18.7847264640058</v>
       </c>
       <c r="D4">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E4">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F4">
-        <v>0.634061513985244</v>
+        <v>1.0876853098949</v>
       </c>
       <c r="G4">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="H4">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I4">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J4">
-        <v>0.7675125399683892</v>
+        <v>1.316610607126625</v>
       </c>
       <c r="K4">
-        <v>3.865475724975788</v>
+        <v>6.6309357516207</v>
       </c>
       <c r="L4">
-        <v>1.673909243486395</v>
+        <v>2.871466654384907</v>
       </c>
       <c r="M4">
-        <v>10.19545005081399</v>
+        <v>17.48953532652932</v>
       </c>
       <c r="N4">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O4">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P4">
-        <v>35.49082369167746</v>
+        <v>60.88186510939352</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.4747241080663581</v>
+        <v>0.8143538555925555</v>
       </c>
       <c r="C5">
-        <v>13.77232968516661</v>
+        <v>23.62540597588422</v>
       </c>
       <c r="D5">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E5">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F5">
-        <v>0.5833365928664247</v>
+        <v>1.000670485103308</v>
       </c>
       <c r="G5">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="H5">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I5">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J5">
-        <v>0.7359709287368116</v>
+        <v>1.262503321902244</v>
       </c>
       <c r="K5">
-        <v>3.706620558195961</v>
+        <v>6.358431542649986</v>
       </c>
       <c r="L5">
-        <v>1.569289915768496</v>
+        <v>2.691999988485851</v>
       </c>
       <c r="M5">
-        <v>9.558234422638119</v>
+        <v>16.39643936862124</v>
       </c>
       <c r="N5">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O5">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P5">
-        <v>37.16253453844382</v>
+        <v>63.74956057791561</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.4841605200003985</v>
+        <v>0.8305413175538756</v>
       </c>
       <c r="C6">
-        <v>14.04609159022344</v>
+        <v>24.09502413748438</v>
       </c>
       <c r="D6">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E6">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F6">
-        <v>0.6086990534258341</v>
+        <v>1.044177897499104</v>
       </c>
       <c r="G6">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="H6">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I6">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J6">
-        <v>0.9672760777683808</v>
+        <v>1.659290080214377</v>
       </c>
       <c r="K6">
-        <v>4.87155844791469</v>
+        <v>8.356795741768554</v>
       </c>
       <c r="L6">
-        <v>1.743655461964996</v>
+        <v>2.991111098317611</v>
       </c>
       <c r="M6">
-        <v>10.62026046959791</v>
+        <v>18.21826596513472</v>
       </c>
       <c r="N6">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O6">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P6">
-        <v>41.17603511795318</v>
+        <v>70.63442194436122</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.4326231932837145</v>
+        <v>0.7421328714574362</v>
       </c>
       <c r="C7">
-        <v>12.55093041645153</v>
+        <v>21.53018648566819</v>
       </c>
       <c r="D7">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E7">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F7">
-        <v>0.760873816782293</v>
+        <v>1.30522237187388</v>
       </c>
       <c r="G7">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H7">
-        <v>0.07543103979664546</v>
+        <v>0.1293963315660541</v>
       </c>
       <c r="I7">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="J7">
-        <v>1.061900911463114</v>
+        <v>1.821611935887523</v>
       </c>
       <c r="K7">
-        <v>5.348123948254172</v>
+        <v>9.174308368680693</v>
       </c>
       <c r="L7">
-        <v>1.569289915768496</v>
+        <v>2.691999988485851</v>
       </c>
       <c r="M7">
-        <v>9.558234422638119</v>
+        <v>16.39643936862124</v>
       </c>
       <c r="N7">
-        <v>0.1051873356296929</v>
+        <v>0.1804410411732763</v>
       </c>
       <c r="O7">
-        <v>1.662391896986985</v>
+        <v>2.851709504139907</v>
       </c>
       <c r="P7">
-        <v>41.4354801198729</v>
+        <v>71.07948052478197</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.476901741589598</v>
+        <v>0.8180894237374754</v>
       </c>
       <c r="C8">
-        <v>13.8355055094105</v>
+        <v>23.73377939779194</v>
       </c>
       <c r="D8">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E8">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F8">
-        <v>0.9891359618169809</v>
+        <v>1.696789083436044</v>
       </c>
       <c r="G8">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="H8">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I8">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J8">
-        <v>0.7359709287368116</v>
+        <v>1.262503321902244</v>
       </c>
       <c r="K8">
-        <v>3.706620558195961</v>
+        <v>6.358431542649986</v>
       </c>
       <c r="L8">
-        <v>1.290305041854096</v>
+        <v>2.213422212755033</v>
       </c>
       <c r="M8">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="N8">
-        <v>0.05259366781484644</v>
+        <v>0.09022052058663815</v>
       </c>
       <c r="O8">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="P8">
-        <v>40.13693024480278</v>
+        <v>68.85191491462177</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.523357923418722</v>
+        <v>0.8977815441624351</v>
       </c>
       <c r="C9">
-        <v>15.18325642661334</v>
+        <v>26.04574573182343</v>
       </c>
       <c r="D9">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E9">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F9">
-        <v>0.9130485801387518</v>
+        <v>1.566266846248656</v>
       </c>
       <c r="G9">
-        <v>6.861189399801296</v>
+        <v>11.76985947572296</v>
       </c>
       <c r="H9">
-        <v>0.1440047123390505</v>
+        <v>0.2470293602624668</v>
       </c>
       <c r="I9">
-        <v>4.058614791707037</v>
+        <v>6.962251437901697</v>
       </c>
       <c r="J9">
-        <v>0.8621373736631222</v>
+        <v>1.478932462799771</v>
       </c>
       <c r="K9">
-        <v>4.342041225315268</v>
+        <v>7.448448378532841</v>
       </c>
       <c r="L9">
-        <v>1.011320167939697</v>
+        <v>1.734844437024214</v>
       </c>
       <c r="M9">
-        <v>6.159751072366789</v>
+        <v>10.56659425977813</v>
       </c>
       <c r="N9">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O9">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P9">
-        <v>40.96126091470583</v>
+        <v>70.26599279251398</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.7454765427892199</v>
+        <v>1.278809494944272</v>
       </c>
       <c r="C10">
-        <v>21.62719049948948</v>
+        <v>37.09983476641145</v>
       </c>
       <c r="D10">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E10">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F10">
-        <v>0.760873816782293</v>
+        <v>1.30522237187388</v>
       </c>
       <c r="G10">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H10">
-        <v>0.1234326105763289</v>
+        <v>0.211739451653543</v>
       </c>
       <c r="I10">
-        <v>3.478812678606031</v>
+        <v>5.967644089630027</v>
       </c>
       <c r="J10">
-        <v>0.7254570583262857</v>
+        <v>1.244467560160783</v>
       </c>
       <c r="K10">
-        <v>3.653668835936018</v>
+        <v>6.267596806326416</v>
       </c>
       <c r="L10">
-        <v>0.8020815125038976</v>
+        <v>1.375911105226101</v>
       </c>
       <c r="M10">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="N10">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O10">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P10">
-        <v>43.48712210916156</v>
+        <v>74.59891957555639</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,43 +930,43 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.7432989092659795</v>
+        <v>1.275073926799353</v>
       </c>
       <c r="C11">
-        <v>21.56401467524557</v>
+        <v>36.99146134450371</v>
       </c>
       <c r="D11">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E11">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F11">
-        <v>0.634061513985244</v>
+        <v>1.0876853098949</v>
       </c>
       <c r="G11">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="H11">
-        <v>0.1851489158644934</v>
+        <v>0.3176091774803145</v>
       </c>
       <c r="I11">
-        <v>5.218219017909045</v>
+        <v>8.95146613444504</v>
       </c>
       <c r="J11">
-        <v>0.4205548164210353</v>
+        <v>0.7214304696584248</v>
       </c>
       <c r="K11">
-        <v>2.118068890397692</v>
+        <v>3.63338945294285</v>
       </c>
       <c r="L11">
-        <v>0.8369546217431976</v>
+        <v>1.435733327192454</v>
       </c>
       <c r="M11">
-        <v>5.097725025406997</v>
+        <v>8.744767663264662</v>
       </c>
       <c r="P11">
-        <v>42.04965555549242</v>
+        <v>72.13305274811867</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,43 +974,43 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.5777987614997262</v>
+        <v>0.9911707477854347</v>
       </c>
       <c r="C12">
-        <v>16.76265203271043</v>
+        <v>28.75508127951656</v>
       </c>
       <c r="D12">
-        <v>0.002413630043614188</v>
+        <v>0.004140402601412637</v>
       </c>
       <c r="E12">
-        <v>0.873013197981472</v>
+        <v>1.497589129516089</v>
       </c>
       <c r="F12">
-        <v>0.4565242900693759</v>
+        <v>0.7831334231243281</v>
       </c>
       <c r="G12">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="H12">
-        <v>0.1577194468475314</v>
+        <v>0.2705559660017494</v>
       </c>
       <c r="I12">
-        <v>4.445149533774374</v>
+        <v>7.625323003416145</v>
       </c>
       <c r="J12">
-        <v>0.4941519092947163</v>
+        <v>0.8476808018486492</v>
       </c>
       <c r="K12">
-        <v>2.488730946217288</v>
+        <v>4.269232607207848</v>
       </c>
       <c r="L12">
-        <v>0.8020815125038976</v>
+        <v>1.375911105226101</v>
       </c>
       <c r="M12">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="P12">
-        <v>35.37614977685811</v>
+        <v>60.68515054806777</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,49 +1018,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.4631100626090772</v>
+        <v>0.7944308254863159</v>
       </c>
       <c r="C13">
-        <v>13.4353919558659</v>
+        <v>23.04741439237634</v>
       </c>
       <c r="D13">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E13">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F13">
-        <v>0.5579741323070149</v>
+        <v>0.9571630727075121</v>
       </c>
       <c r="G13">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="H13">
-        <v>0.1097178760678479</v>
+        <v>0.1882128459142605</v>
       </c>
       <c r="I13">
-        <v>3.092277936538694</v>
+        <v>5.30457252411558</v>
       </c>
       <c r="J13">
-        <v>0.2943883714947246</v>
+        <v>0.5050013287608973</v>
       </c>
       <c r="K13">
-        <v>1.482648223278385</v>
+        <v>2.543372617059995</v>
       </c>
       <c r="L13">
-        <v>1.429797478811296</v>
+        <v>2.45271110062044</v>
       </c>
       <c r="M13">
-        <v>8.708613585070287</v>
+        <v>14.93897809141046</v>
       </c>
       <c r="N13">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O13">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P13">
-        <v>34.51932207562317</v>
+        <v>59.2153264329174</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.3462437301951877</v>
+        <v>0.5939553350422768</v>
       </c>
       <c r="C14">
-        <v>10.04495605477748</v>
+        <v>17.23137408332839</v>
       </c>
       <c r="D14">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E14">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F14">
-        <v>0.304349526712917</v>
+        <v>0.5220889487495519</v>
       </c>
       <c r="G14">
-        <v>2.287063133267099</v>
+        <v>3.923286491907657</v>
       </c>
       <c r="H14">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I14">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J14">
-        <v>0.2207912786210435</v>
+        <v>0.3787509965706731</v>
       </c>
       <c r="K14">
-        <v>1.111986167458788</v>
+        <v>1.907529462794996</v>
       </c>
       <c r="L14">
-        <v>1.464670588050595</v>
+        <v>2.512533322586793</v>
       </c>
       <c r="M14">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="P14">
-        <v>26.96909622641658</v>
+        <v>46.26347623946462</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.2279256420991383</v>
+        <v>0.3909894658349579</v>
       </c>
       <c r="C15">
-        <v>6.61240293752648</v>
+        <v>11.34308482634196</v>
       </c>
       <c r="D15">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E15">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F15">
-        <v>0.304349526712917</v>
+        <v>0.5220889487495519</v>
       </c>
       <c r="G15">
-        <v>2.287063133267099</v>
+        <v>3.923286491907657</v>
       </c>
       <c r="H15">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I15">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J15">
-        <v>0.262846760263147</v>
+        <v>0.4508940435365155</v>
       </c>
       <c r="K15">
-        <v>1.323793056498558</v>
+        <v>2.270868408089281</v>
       </c>
       <c r="L15">
-        <v>0.9067008402217975</v>
+        <v>1.555377771125158</v>
       </c>
       <c r="M15">
-        <v>5.522535444190913</v>
+        <v>9.473498301870054</v>
       </c>
       <c r="P15">
-        <v>19.89071965925629</v>
+        <v>34.12104835164975</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.1139628210495691</v>
+        <v>0.1954947329174789</v>
       </c>
       <c r="C16">
-        <v>3.30620146876324</v>
+        <v>5.671542413170981</v>
       </c>
       <c r="D16">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E16">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F16">
-        <v>0.1775372239158684</v>
+        <v>0.304551886770572</v>
       </c>
       <c r="G16">
-        <v>1.334120161072474</v>
+        <v>2.288583786946133</v>
       </c>
       <c r="H16">
-        <v>0.04800157077968346</v>
+        <v>0.08234312008748891</v>
       </c>
       <c r="I16">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="J16">
-        <v>0.1156525745157847</v>
+        <v>0.1983933791560668</v>
       </c>
       <c r="K16">
-        <v>0.5824689448593653</v>
+        <v>0.9991820995592837</v>
       </c>
       <c r="L16">
-        <v>0.6974621847859984</v>
+        <v>1.196444439327044</v>
       </c>
       <c r="M16">
-        <v>4.248104187839163</v>
+        <v>7.287306386053887</v>
       </c>
       <c r="P16">
-        <v>12.50163883163188</v>
+        <v>21.44563044256</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.08275007388312663</v>
+        <v>0.1419515895069592</v>
       </c>
       <c r="C17">
-        <v>2.400681321267573</v>
+        <v>4.118190032493581</v>
       </c>
       <c r="D17">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E17">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F17">
-        <v>0.02536246055940976</v>
+        <v>0.04350741239579597</v>
       </c>
       <c r="G17">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="H17">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I17">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J17">
-        <v>0.1261664449263106</v>
+        <v>0.2164291408975274</v>
       </c>
       <c r="K17">
-        <v>0.6354206671193077</v>
+        <v>1.090016835882855</v>
       </c>
       <c r="L17">
-        <v>0.4533504201108988</v>
+        <v>0.777688885562579</v>
       </c>
       <c r="M17">
-        <v>2.761267722095456</v>
+        <v>4.736749150935027</v>
       </c>
       <c r="P17">
-        <v>8.143105704120597</v>
+        <v>13.96889143393029</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,43 +1244,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.04863381535236388</v>
+        <v>0.08342768856987955</v>
       </c>
       <c r="C18">
-        <v>1.410926741446733</v>
+        <v>2.420339755939208</v>
       </c>
       <c r="D18">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E18">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F18">
-        <v>0.101449842237639</v>
+        <v>0.1740296495831839</v>
       </c>
       <c r="G18">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H18">
-        <v>0.02057210176272149</v>
+        <v>0.03528990860892383</v>
       </c>
       <c r="I18">
-        <v>0.5798021131010053</v>
+        <v>0.994607348271671</v>
       </c>
       <c r="J18">
-        <v>0.1051387041052588</v>
+        <v>0.1803576174146062</v>
       </c>
       <c r="K18">
-        <v>0.529517222599423</v>
+        <v>0.9083473632357124</v>
       </c>
       <c r="L18">
-        <v>0.4533504201108988</v>
+        <v>0.777688885562579</v>
       </c>
       <c r="M18">
-        <v>2.761267722095456</v>
+        <v>4.736749150935027</v>
       </c>
       <c r="P18">
-        <v>7.59007810005728</v>
+        <v>13.02021376206634</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,37 +1288,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.03847152557724307</v>
+        <v>0.06599503722691967</v>
       </c>
       <c r="C19">
-        <v>1.116106228308609</v>
+        <v>1.914597120369823</v>
       </c>
       <c r="D19">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E19">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F19">
-        <v>0.02536246055940976</v>
+        <v>0.04350741239579597</v>
       </c>
       <c r="G19">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="J19">
-        <v>0.1051387041052588</v>
+        <v>0.1803576174146062</v>
       </c>
       <c r="K19">
-        <v>0.529517222599423</v>
+        <v>0.9083473632357124</v>
       </c>
       <c r="L19">
-        <v>0.4882235293501987</v>
+        <v>0.8375111075289313</v>
       </c>
       <c r="M19">
-        <v>2.973672931487415</v>
+        <v>5.10111447023772</v>
       </c>
       <c r="P19">
-        <v>5.817251927636518</v>
+        <v>9.979062482248814</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.03411625853076274</v>
+        <v>0.05852390093707967</v>
       </c>
       <c r="C20">
-        <v>0.9897545798208428</v>
+        <v>1.697850276554371</v>
       </c>
       <c r="D20">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E20">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F20">
-        <v>0.101449842237639</v>
+        <v>0.1740296495831839</v>
       </c>
       <c r="G20">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H20">
-        <v>0.006857367254240495</v>
+        <v>0.01176330286964128</v>
       </c>
       <c r="I20">
-        <v>0.1932673710336684</v>
+        <v>0.3315357827572237</v>
       </c>
       <c r="J20">
-        <v>0.17873579697894</v>
+        <v>0.3066079496048305</v>
       </c>
       <c r="K20">
-        <v>0.9001792784190192</v>
+        <v>1.544190517500711</v>
       </c>
       <c r="L20">
-        <v>0.6625890755466983</v>
+        <v>1.136622217360692</v>
       </c>
       <c r="M20">
-        <v>4.035698978447206</v>
+        <v>6.922941066751192</v>
       </c>
       <c r="P20">
-        <v>8.040088291629733</v>
+        <v>13.79217273431164</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,43 +1370,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.07041015058476562</v>
+        <v>0.1207833700190794</v>
       </c>
       <c r="C21">
-        <v>2.042684983885568</v>
+        <v>3.504073975016468</v>
       </c>
       <c r="D21">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E21">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F21">
-        <v>0.1521747633564585</v>
+        <v>0.261044474374776</v>
       </c>
       <c r="G21">
-        <v>1.143531566633549</v>
+        <v>1.961643245953828</v>
       </c>
       <c r="H21">
-        <v>0.02057210176272149</v>
+        <v>0.03528990860892383</v>
       </c>
       <c r="I21">
-        <v>0.5798021131010053</v>
+        <v>0.994607348271671</v>
       </c>
       <c r="J21">
-        <v>0.1682219265684141</v>
+        <v>0.2885721878633699</v>
       </c>
       <c r="K21">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="L21">
-        <v>1.499543697289896</v>
+        <v>2.572355544553147</v>
       </c>
       <c r="M21">
-        <v>9.133424003854202</v>
+        <v>15.66770873001585</v>
       </c>
       <c r="P21">
-        <v>15.83267822880067</v>
+        <v>27.15978047227776</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,43 +1414,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.1850988494754147</v>
+        <v>0.3175232923181983</v>
       </c>
       <c r="C22">
-        <v>5.369945060730104</v>
+        <v>9.211740862156695</v>
       </c>
       <c r="D22">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E22">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F22">
-        <v>0.5072492111881953</v>
+        <v>0.8701482479159199</v>
       </c>
       <c r="G22">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="H22">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I22">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J22">
-        <v>0.2733606306736728</v>
+        <v>0.4689298052779761</v>
       </c>
       <c r="K22">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="L22">
-        <v>2.824721848383292</v>
+        <v>4.845599979274533</v>
       </c>
       <c r="M22">
-        <v>17.20482196074862</v>
+        <v>29.51359086351825</v>
       </c>
       <c r="P22">
-        <v>33.52992223893249</v>
+        <v>57.51808469178579</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,49 +1458,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.4253644148729142</v>
+        <v>0.729680977641036</v>
       </c>
       <c r="C23">
-        <v>12.34034433563859</v>
+        <v>21.16894174597575</v>
       </c>
       <c r="D23">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E23">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F23">
-        <v>0.4311618295099661</v>
+        <v>0.7396260107285323</v>
       </c>
       <c r="G23">
-        <v>3.240006105461723</v>
+        <v>5.557989196869178</v>
       </c>
       <c r="H23">
-        <v>0.2331504866441769</v>
+        <v>0.3999522975678034</v>
       </c>
       <c r="I23">
-        <v>6.571090615144726</v>
+        <v>11.27221661374561</v>
       </c>
       <c r="J23">
-        <v>0.7359709287368116</v>
+        <v>1.262503321902244</v>
       </c>
       <c r="K23">
-        <v>3.706620558195961</v>
+        <v>6.358431542649986</v>
       </c>
       <c r="L23">
-        <v>2.580610083708192</v>
+        <v>4.426844425510066</v>
       </c>
       <c r="M23">
-        <v>15.71798549500491</v>
+        <v>26.96303362839938</v>
       </c>
       <c r="N23">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O23">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P23">
-        <v>46.77437039228217</v>
+        <v>80.2379492101649</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1508,49 +1508,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.550215403538684</v>
+        <v>0.9438535512831147</v>
       </c>
       <c r="C24">
-        <v>15.96242492562124</v>
+        <v>27.38235126868536</v>
       </c>
       <c r="D24">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E24">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F24">
-        <v>0.4311618295099661</v>
+        <v>0.7396260107285323</v>
       </c>
       <c r="G24">
-        <v>3.240006105461723</v>
+        <v>5.557989196869178</v>
       </c>
       <c r="H24">
-        <v>0.1440047123390505</v>
+        <v>0.2470293602624668</v>
       </c>
       <c r="I24">
-        <v>4.058614791707037</v>
+        <v>6.962251437901697</v>
       </c>
       <c r="J24">
-        <v>0.6623738358631306</v>
+        <v>1.136252989712019</v>
       </c>
       <c r="K24">
-        <v>3.335958502376365</v>
+        <v>5.722588388384987</v>
       </c>
       <c r="L24">
-        <v>2.092386554357994</v>
+        <v>3.589333317981135</v>
       </c>
       <c r="M24">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="N24">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O24">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P24">
-        <v>44.07188655219189</v>
+        <v>75.60203943128663</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1558,49 +1558,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.6467571564023321</v>
+        <v>1.109463739041235</v>
       </c>
       <c r="C25">
-        <v>18.76321980043341</v>
+        <v>32.18690630659457</v>
       </c>
       <c r="D25">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E25">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F25">
-        <v>0.7355113562228833</v>
+        <v>1.261714959478084</v>
       </c>
       <c r="G25">
-        <v>5.527069238728821</v>
+        <v>9.481275688776835</v>
       </c>
       <c r="H25">
-        <v>0.1302899778305694</v>
+        <v>0.2235027545231842</v>
       </c>
       <c r="I25">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="J25">
-        <v>0.5572351317578715</v>
+        <v>0.9558953722974127</v>
       </c>
       <c r="K25">
-        <v>2.806441279776942</v>
+        <v>4.814241025149275</v>
       </c>
       <c r="L25">
-        <v>1.673909243486395</v>
+        <v>2.871466654384907</v>
       </c>
       <c r="M25">
-        <v>10.19545005081399</v>
+        <v>17.48953532652932</v>
       </c>
       <c r="N25">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O25">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P25">
-        <v>45.6626144399992</v>
+        <v>78.33081466436035</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1608,49 +1608,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.526987312624122</v>
+        <v>0.9040074910706352</v>
       </c>
       <c r="C26">
-        <v>15.28854946701982</v>
+        <v>26.22636810166963</v>
       </c>
       <c r="D26">
-        <v>0.002574538713188467</v>
+        <v>0.004416429441506813</v>
       </c>
       <c r="E26">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="F26">
-        <v>0.6594239745446541</v>
+        <v>1.131192722290696</v>
       </c>
       <c r="G26">
-        <v>4.955303455412047</v>
+        <v>8.500454065799921</v>
       </c>
       <c r="H26">
-        <v>0.1302899778305694</v>
+        <v>0.2235027545231842</v>
       </c>
       <c r="I26">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="J26">
-        <v>0.8411096328420706</v>
+        <v>1.44286093931685</v>
       </c>
       <c r="K26">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="L26">
-        <v>2.510863865229593</v>
+        <v>4.30719998157736</v>
       </c>
       <c r="M26">
-        <v>15.293175076221</v>
+        <v>26.23430298979399</v>
       </c>
       <c r="N26">
-        <v>0.04601945933799063</v>
+        <v>0.07894295551330842</v>
       </c>
       <c r="O26">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="P26">
-        <v>49.82102512298884</v>
+        <v>85.4642585221484</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1658,49 +1658,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.3810858665670305</v>
+        <v>0.6537244253609964</v>
       </c>
       <c r="C27">
-        <v>11.05576924267962</v>
+        <v>18.96534883385201</v>
       </c>
       <c r="D27">
-        <v>0.00193090403489135</v>
+        <v>0.003312322081130111</v>
       </c>
       <c r="E27">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="F27">
-        <v>0.6086990534258341</v>
+        <v>1.044177897499104</v>
       </c>
       <c r="G27">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="H27">
-        <v>0.04800157077968346</v>
+        <v>0.08234312008748891</v>
       </c>
       <c r="I27">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="J27">
-        <v>1.01984542982101</v>
+        <v>1.74946888892168</v>
       </c>
       <c r="K27">
-        <v>5.136317059214403</v>
+        <v>8.81096942338641</v>
       </c>
       <c r="L27">
-        <v>2.092386554357994</v>
+        <v>3.589333317981135</v>
       </c>
       <c r="M27">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="N27">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O27">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P27">
-        <v>40.37659887878426</v>
+        <v>69.26304860855281</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1708,49 +1708,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.4115727358923932</v>
+        <v>0.7060223793898762</v>
       </c>
       <c r="C28">
-        <v>11.94023078209399</v>
+        <v>20.48257674056017</v>
       </c>
       <c r="D28">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E28">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F28">
-        <v>0.6847864351040636</v>
+        <v>1.174700134686492</v>
       </c>
       <c r="G28">
-        <v>5.145892049850972</v>
+        <v>8.827394606792224</v>
       </c>
       <c r="H28">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I28">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J28">
-        <v>0.8411096328420706</v>
+        <v>1.44286093931685</v>
       </c>
       <c r="K28">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="L28">
-        <v>1.813401680443595</v>
+        <v>3.110755542250316</v>
       </c>
       <c r="M28">
-        <v>11.04507088838183</v>
+        <v>18.94699660374011</v>
       </c>
       <c r="N28">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O28">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P28">
-        <v>38.63845559006697</v>
+        <v>66.28139323296062</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1758,49 +1758,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.4543995285161162</v>
+        <v>0.7794885529066358</v>
       </c>
       <c r="C29">
-        <v>13.18268865889037</v>
+        <v>22.61392070474545</v>
       </c>
       <c r="D29">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E29">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F29">
-        <v>0.5072492111881953</v>
+        <v>0.8701482479159199</v>
       </c>
       <c r="G29">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="H29">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I29">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J29">
-        <v>0.8621373736631222</v>
+        <v>1.478932462799771</v>
       </c>
       <c r="K29">
-        <v>4.342041225315268</v>
+        <v>7.448448378532841</v>
       </c>
       <c r="L29">
-        <v>1.255431932614797</v>
+        <v>2.15359999078868</v>
       </c>
       <c r="M29">
-        <v>7.646587538110498</v>
+        <v>13.11715149489699</v>
       </c>
       <c r="N29">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O29">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P29">
-        <v>34.94730448370727</v>
+        <v>59.9494983829553</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1808,49 +1808,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.4994039546630801</v>
+        <v>0.8566902945683154</v>
       </c>
       <c r="C30">
-        <v>14.48832235993063</v>
+        <v>24.85363809083844</v>
       </c>
       <c r="D30">
-        <v>0.00193090403489135</v>
+        <v>0.003312322081130111</v>
       </c>
       <c r="E30">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="F30">
-        <v>0.634061513985244</v>
+        <v>1.0876853098949</v>
       </c>
       <c r="G30">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="H30">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I30">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J30">
-        <v>0.6834015766841821</v>
+        <v>1.17232451319494</v>
       </c>
       <c r="K30">
-        <v>3.44186194689625</v>
+        <v>5.904257861032131</v>
       </c>
       <c r="L30">
-        <v>1.464670588050595</v>
+        <v>2.512533322586793</v>
       </c>
       <c r="M30">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="N30">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O30">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P30">
-        <v>37.50939340469514</v>
+        <v>64.34457113305417</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1858,49 +1858,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.4674653296555576</v>
+        <v>0.8019019617761557</v>
       </c>
       <c r="C31">
-        <v>13.56174360435366</v>
+        <v>23.2641612361918</v>
       </c>
       <c r="D31">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E31">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F31">
-        <v>0.634061513985244</v>
+        <v>1.0876853098949</v>
       </c>
       <c r="G31">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="H31">
-        <v>0.05485893803392396</v>
+        <v>0.09410642295713023</v>
       </c>
       <c r="I31">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="J31">
-        <v>1.030359300231536</v>
+        <v>1.767504650663141</v>
       </c>
       <c r="K31">
-        <v>5.189268781474344</v>
+        <v>8.901804159709979</v>
       </c>
       <c r="L31">
-        <v>1.394924369571997</v>
+        <v>2.392888878654088</v>
       </c>
       <c r="M31">
-        <v>8.496208375678327</v>
+        <v>14.57461277210777</v>
       </c>
       <c r="N31">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O31">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P31">
-        <v>38.21736864923483</v>
+        <v>65.55904994350125</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1908,49 +1908,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.5291649461473622</v>
+        <v>0.9077430592155549</v>
       </c>
       <c r="C32">
-        <v>15.3517252912637</v>
+        <v>26.33474152357735</v>
       </c>
       <c r="D32">
-        <v>0.00209181270446563</v>
+        <v>0.003588348921224285</v>
       </c>
       <c r="E32">
-        <v>0.7566114382506091</v>
+        <v>1.297910578913944</v>
       </c>
       <c r="F32">
-        <v>0.4818867506287855</v>
+        <v>0.8266408355201241</v>
       </c>
       <c r="G32">
-        <v>3.621183294339573</v>
+        <v>6.21187027885379</v>
       </c>
       <c r="H32">
-        <v>0.05485893803392396</v>
+        <v>0.09410642295713023</v>
       </c>
       <c r="I32">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="J32">
-        <v>0.7254570583262857</v>
+        <v>1.244467560160783</v>
       </c>
       <c r="K32">
-        <v>3.653668835936018</v>
+        <v>6.267596806326416</v>
       </c>
       <c r="L32">
-        <v>1.464670588050595</v>
+        <v>2.512533322586793</v>
       </c>
       <c r="M32">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="N32">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O32">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P32">
-        <v>37.43989782252854</v>
+        <v>64.22535663705028</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1958,49 +1958,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.5741693722943262</v>
+        <v>0.9849448008772348</v>
       </c>
       <c r="C33">
-        <v>16.65735899230396</v>
+        <v>28.57445890967037</v>
       </c>
       <c r="D33">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E33">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F33">
-        <v>0.8876861195793422</v>
+        <v>1.522759433852861</v>
       </c>
       <c r="G33">
-        <v>6.670600805362371</v>
+        <v>11.44291893473067</v>
       </c>
       <c r="H33">
-        <v>0.1302899778305694</v>
+        <v>0.2235027545231842</v>
       </c>
       <c r="I33">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="J33">
-        <v>0.883165114484174</v>
+        <v>1.515003986282692</v>
       </c>
       <c r="K33">
-        <v>4.447944669835152</v>
+        <v>7.630117851179984</v>
       </c>
       <c r="L33">
-        <v>0.8718277309824979</v>
+        <v>1.495555549158806</v>
       </c>
       <c r="M33">
-        <v>5.310130234798956</v>
+        <v>9.109132982567358</v>
       </c>
       <c r="N33">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O33">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P33">
-        <v>41.12451588558381</v>
+        <v>70.5460445377701</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.6866804376617351</v>
+        <v>1.177949155031434</v>
       </c>
       <c r="C34">
-        <v>19.92144324490462</v>
+        <v>34.17375237490288</v>
       </c>
       <c r="D34">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E34">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F34">
-        <v>0.8115987379011124</v>
+        <v>1.392237196665471</v>
       </c>
       <c r="G34">
-        <v>6.098835022045596</v>
+        <v>10.46209731175375</v>
       </c>
       <c r="H34">
-        <v>0.1508620795932909</v>
+        <v>0.2587926631321081</v>
       </c>
       <c r="I34">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="J34">
-        <v>0.5992906133999752</v>
+        <v>1.028038419263255</v>
       </c>
       <c r="K34">
-        <v>3.01824816881671</v>
+        <v>5.17757997044356</v>
       </c>
       <c r="L34">
-        <v>0.5579697478287985</v>
+        <v>0.9571555514616356</v>
       </c>
       <c r="M34">
-        <v>3.398483350271333</v>
+        <v>5.829845108843107</v>
       </c>
       <c r="N34">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O34">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P34">
-        <v>40.24774694108748</v>
+        <v>69.04201270479103</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,43 +2058,43 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.7229743297157382</v>
+        <v>1.240208624113433</v>
       </c>
       <c r="C35">
-        <v>20.97437364896935</v>
+        <v>35.97997607336496</v>
       </c>
       <c r="D35">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E35">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F35">
-        <v>0.5833365928664247</v>
+        <v>1.000670485103308</v>
       </c>
       <c r="G35">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="H35">
-        <v>0.1851489158644934</v>
+        <v>0.3176091774803145</v>
       </c>
       <c r="I35">
-        <v>5.218219017909045</v>
+        <v>8.95146613444504</v>
       </c>
       <c r="J35">
-        <v>0.3154161123157764</v>
+        <v>0.5410728522438187</v>
       </c>
       <c r="K35">
-        <v>1.588551667798269</v>
+        <v>2.725042089707138</v>
       </c>
       <c r="L35">
-        <v>0.767208403264598</v>
+        <v>1.316088883259749</v>
       </c>
       <c r="M35">
-        <v>4.67291460662308</v>
+        <v>8.016037024659274</v>
       </c>
       <c r="P35">
-        <v>39.82021348716709</v>
+        <v>68.30861090218822</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2102,43 +2102,43 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.6750663922044542</v>
+        <v>1.158026124925194</v>
       </c>
       <c r="C36">
-        <v>19.5845055156039</v>
+        <v>33.59576079139498</v>
       </c>
       <c r="D36">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E36">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F36">
-        <v>0.6086990534258341</v>
+        <v>1.044177897499104</v>
       </c>
       <c r="G36">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="H36">
-        <v>0.13714734508481</v>
+        <v>0.2352660573928256</v>
       </c>
       <c r="I36">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="J36">
-        <v>0.441582557242087</v>
+        <v>0.7575019931413461</v>
       </c>
       <c r="K36">
-        <v>2.223972334917576</v>
+        <v>3.815058925589992</v>
       </c>
       <c r="L36">
-        <v>1.150812604896897</v>
+        <v>1.974133324889623</v>
       </c>
       <c r="M36">
-        <v>7.009371909934623</v>
+        <v>12.02405553698891</v>
       </c>
       <c r="P36">
-        <v>40.56244034319278</v>
+        <v>69.58184580148759</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2146,43 +2146,43 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.4181056364621133</v>
+        <v>0.7172290838246359</v>
       </c>
       <c r="C37">
-        <v>12.12975825482564</v>
+        <v>20.80769700628334</v>
       </c>
       <c r="D37">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E37">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F37">
-        <v>0.5579741323070149</v>
+        <v>0.9571630727075121</v>
       </c>
       <c r="G37">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="H37">
-        <v>0.1645768141017719</v>
+        <v>0.2823192688713906</v>
       </c>
       <c r="I37">
-        <v>4.638416904808042</v>
+        <v>7.956858786173368</v>
       </c>
       <c r="J37">
-        <v>0.2102774082105177</v>
+        <v>0.3607152348292124</v>
       </c>
       <c r="K37">
-        <v>1.059034445198846</v>
+        <v>1.816694726471425</v>
       </c>
       <c r="L37">
-        <v>1.185685714136197</v>
+        <v>2.033955546855976</v>
       </c>
       <c r="M37">
-        <v>7.22177711932658</v>
+        <v>12.3884208562916</v>
       </c>
       <c r="P37">
-        <v>32.42053518091813</v>
+        <v>55.61501380769201</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.3585836534935489</v>
+        <v>0.6151235545301567</v>
       </c>
       <c r="C38">
-        <v>10.40295239215949</v>
+        <v>17.84549014080551</v>
       </c>
       <c r="D38">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E38">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F38">
-        <v>0.4565242900693759</v>
+        <v>0.7831334231243281</v>
       </c>
       <c r="G38">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="H38">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I38">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J38">
-        <v>0.2838745010841988</v>
+        <v>0.4869655670194367</v>
       </c>
       <c r="K38">
-        <v>1.429696501018442</v>
+        <v>2.452537880736423</v>
       </c>
       <c r="L38">
-        <v>1.150812604896897</v>
+        <v>1.974133324889623</v>
       </c>
       <c r="M38">
-        <v>7.009371909934623</v>
+        <v>12.02405553698891</v>
       </c>
       <c r="P38">
-        <v>27.04891403225136</v>
+        <v>46.40039774149502</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,49 +2234,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.2489760994904599</v>
+        <v>0.4270999579025177</v>
       </c>
       <c r="C39">
-        <v>7.223102571884017</v>
+        <v>12.39069457144998</v>
       </c>
       <c r="D39">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E39">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F39">
-        <v>0.2789870661535074</v>
+        <v>0.4785815363537561</v>
       </c>
       <c r="G39">
-        <v>2.096474538828173</v>
+        <v>3.59634595091535</v>
       </c>
       <c r="H39">
-        <v>0.08914577430512644</v>
+        <v>0.1529229373053366</v>
       </c>
       <c r="I39">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="J39">
-        <v>0.1682219265684141</v>
+        <v>0.2885721878633699</v>
       </c>
       <c r="K39">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="L39">
-        <v>0.9415739494610974</v>
+        <v>1.61519999309151</v>
       </c>
       <c r="M39">
-        <v>5.734940653582871</v>
+        <v>9.837863621172746</v>
       </c>
       <c r="N39">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O39">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P39">
-        <v>21.06866470139905</v>
+        <v>36.14172535213402</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2284,43 +2284,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.1553378579911324</v>
+        <v>0.2664705276709586</v>
       </c>
       <c r="C40">
-        <v>4.506542129397026</v>
+        <v>7.730637429417771</v>
       </c>
       <c r="D40">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E40">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F40">
-        <v>0.101449842237639</v>
+        <v>0.1740296495831839</v>
       </c>
       <c r="G40">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H40">
-        <v>0.04800157077968346</v>
+        <v>0.08234312008748891</v>
       </c>
       <c r="I40">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="J40">
-        <v>0.1577080561578882</v>
+        <v>0.2705364261219094</v>
       </c>
       <c r="K40">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="L40">
-        <v>0.4533504201108988</v>
+        <v>0.777688885562579</v>
       </c>
       <c r="M40">
-        <v>2.761267722095456</v>
+        <v>4.736749150935027</v>
       </c>
       <c r="P40">
-        <v>11.61841550447529</v>
+        <v>19.93052659677277</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2328,43 +2328,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.08347595172420673</v>
+        <v>0.1431967788885992</v>
       </c>
       <c r="C41">
-        <v>2.421739929348869</v>
+        <v>4.15431450646282</v>
       </c>
       <c r="D41">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E41">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F41">
-        <v>0.101449842237639</v>
+        <v>0.1740296495831839</v>
       </c>
       <c r="G41">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H41">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I41">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J41">
-        <v>0.1682219265684141</v>
+        <v>0.2885721878633699</v>
       </c>
       <c r="K41">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="L41">
-        <v>0.5230966385894984</v>
+        <v>0.8973333294952837</v>
       </c>
       <c r="M41">
-        <v>3.186078140879373</v>
+        <v>5.465479789540416</v>
       </c>
       <c r="P41">
-        <v>9.9113330941924</v>
+        <v>17.00215384509069</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2372,43 +2372,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.04863381535236388</v>
+        <v>0.08342768856987955</v>
       </c>
       <c r="C42">
-        <v>1.410926741446733</v>
+        <v>2.420339755939208</v>
       </c>
       <c r="D42">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E42">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F42">
-        <v>0.07608738167822926</v>
+        <v>0.130522237187388</v>
       </c>
       <c r="G42">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H42">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I42">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J42">
-        <v>0.1577080561578882</v>
+        <v>0.2705364261219094</v>
       </c>
       <c r="K42">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="L42">
-        <v>0.3487310923929992</v>
+        <v>0.5982222196635221</v>
       </c>
       <c r="M42">
-        <v>2.124052093919582</v>
+        <v>3.643653193026943</v>
       </c>
       <c r="P42">
-        <v>6.799574059595386</v>
+        <v>11.66416294797613</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2416,37 +2416,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.03701976989508297</v>
+        <v>0.06350465846363963</v>
       </c>
       <c r="C43">
-        <v>1.07398901214602</v>
+        <v>1.842348172431338</v>
       </c>
       <c r="D43">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E43">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F43">
-        <v>0.05072492111881952</v>
+        <v>0.08701482479159195</v>
       </c>
       <c r="G43">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="J43">
-        <v>0.1051387041052588</v>
+        <v>0.1803576174146062</v>
       </c>
       <c r="K43">
-        <v>0.529517222599423</v>
+        <v>0.9083473632357124</v>
       </c>
       <c r="L43">
-        <v>0.6277159663073983</v>
+        <v>1.07679999539434</v>
       </c>
       <c r="M43">
-        <v>3.823293769055249</v>
+        <v>6.558575747448496</v>
       </c>
       <c r="P43">
-        <v>6.978747285315137</v>
+        <v>11.97152127401133</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,43 +2454,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.02830923580212226</v>
+        <v>0.04856238588395975</v>
       </c>
       <c r="C44">
-        <v>0.8212857151704863</v>
+        <v>1.408854484800435</v>
       </c>
       <c r="D44">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E44">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F44">
-        <v>0.05072492111881952</v>
+        <v>0.08701482479159195</v>
       </c>
       <c r="G44">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H44">
-        <v>0.006857367254240495</v>
+        <v>0.01176330286964128</v>
       </c>
       <c r="I44">
-        <v>0.1932673710336684</v>
+        <v>0.3315357827572237</v>
       </c>
       <c r="J44">
-        <v>0.1682219265684141</v>
+        <v>0.2885721878633699</v>
       </c>
       <c r="K44">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="L44">
-        <v>0.8020815125038976</v>
+        <v>1.375911105226101</v>
       </c>
       <c r="M44">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="P44">
-        <v>8.359557976108633</v>
+        <v>14.34019918773954</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2498,43 +2498,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.08565358524744689</v>
+        <v>0.1469323470335193</v>
       </c>
       <c r="C45">
-        <v>2.484915753592752</v>
+        <v>4.262687928370547</v>
       </c>
       <c r="D45">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E45">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F45">
-        <v>0.2028996844752781</v>
+        <v>0.3480592991663678</v>
       </c>
       <c r="G45">
-        <v>1.524708755511399</v>
+        <v>2.615524327938437</v>
       </c>
       <c r="H45">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I45">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J45">
-        <v>0.1997635377999917</v>
+        <v>0.3426794730877518</v>
       </c>
       <c r="K45">
-        <v>1.006082722938904</v>
+        <v>1.725859990147854</v>
       </c>
       <c r="L45">
-        <v>1.325178151093397</v>
+        <v>2.273244434721384</v>
       </c>
       <c r="M45">
-        <v>8.071397956894412</v>
+        <v>13.84588213350238</v>
       </c>
       <c r="P45">
-        <v>16.19303278166815</v>
+        <v>27.77794187280841</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2542,43 +2542,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.1517084687857321</v>
+        <v>0.2602445807627586</v>
       </c>
       <c r="C46">
-        <v>4.401249088990554</v>
+        <v>7.550015059571562</v>
       </c>
       <c r="F46">
-        <v>0.5072492111881953</v>
+        <v>0.8701482479159199</v>
       </c>
       <c r="G46">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="H46">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I46">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J46">
-        <v>0.3469577235473541</v>
+        <v>0.5951801374682004</v>
       </c>
       <c r="K46">
-        <v>1.747406834578096</v>
+        <v>2.997546298677851</v>
       </c>
       <c r="L46">
-        <v>2.894468066861892</v>
+        <v>4.965244423207237</v>
       </c>
       <c r="M46">
-        <v>17.62963237953254</v>
+        <v>30.24232150212362</v>
       </c>
       <c r="N46">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O46">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P46">
-        <v>34.22336162783339</v>
+        <v>58.70762832434185</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2586,49 +2586,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.4478666279463959</v>
+        <v>0.768281848471876</v>
       </c>
       <c r="C47">
-        <v>12.99316118615872</v>
+        <v>22.28880043902226</v>
       </c>
       <c r="D47">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E47">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F47">
-        <v>0.5833365928664247</v>
+        <v>1.000670485103308</v>
       </c>
       <c r="G47">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="H47">
-        <v>0.2331504866441769</v>
+        <v>0.3999522975678034</v>
       </c>
       <c r="I47">
-        <v>6.571090615144726</v>
+        <v>11.27221661374561</v>
       </c>
       <c r="J47">
-        <v>0.7464847991473375</v>
+        <v>1.280539083643704</v>
       </c>
       <c r="K47">
-        <v>3.759572280455904</v>
+        <v>6.449266278973558</v>
       </c>
       <c r="L47">
-        <v>2.96421428534049</v>
+        <v>5.08488886713994</v>
       </c>
       <c r="M47">
-        <v>18.05444279831645</v>
+        <v>30.97105214072901</v>
       </c>
       <c r="N47">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O47">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P47">
-        <v>51.42469905647304</v>
+        <v>88.21524173251358</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2636,49 +2636,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.5349719688760031</v>
+        <v>0.9177045742686751</v>
       </c>
       <c r="C48">
-        <v>15.52019415591405</v>
+        <v>26.6237373153313</v>
       </c>
       <c r="D48">
-        <v>0.002413630043614188</v>
+        <v>0.004140402601412637</v>
       </c>
       <c r="E48">
-        <v>0.873013197981472</v>
+        <v>1.497589129516089</v>
       </c>
       <c r="F48">
-        <v>0.3804369083911465</v>
+        <v>0.6526111859369402</v>
       </c>
       <c r="G48">
-        <v>2.858828916583872</v>
+        <v>4.90410811488457</v>
       </c>
       <c r="H48">
-        <v>0.1508620795932909</v>
+        <v>0.2587926631321081</v>
       </c>
       <c r="I48">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="J48">
-        <v>0.6834015766841821</v>
+        <v>1.17232451319494</v>
       </c>
       <c r="K48">
-        <v>3.44186194689625</v>
+        <v>5.904257861032131</v>
       </c>
       <c r="L48">
-        <v>2.197005882075893</v>
+        <v>3.768799983880192</v>
       </c>
       <c r="M48">
-        <v>13.38152819169337</v>
+        <v>22.95501511606974</v>
       </c>
       <c r="N48">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O48">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P48">
-        <v>44.82876912766656</v>
+        <v>76.90041512591739</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2686,49 +2686,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.6801475370920144</v>
+        <v>1.166742450596674</v>
       </c>
       <c r="C49">
-        <v>19.73191577217297</v>
+        <v>33.84863210917968</v>
       </c>
       <c r="D49">
-        <v>0.0006436346782971166</v>
+        <v>0.001104107360376703</v>
       </c>
       <c r="E49">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="F49">
-        <v>0.7101488956634735</v>
+        <v>1.218207547082288</v>
       </c>
       <c r="G49">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="H49">
-        <v>0.13714734508481</v>
+        <v>0.2352660573928256</v>
       </c>
       <c r="I49">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="J49">
-        <v>0.6203183542210269</v>
+        <v>1.064109942746177</v>
       </c>
       <c r="K49">
-        <v>3.124151613336596</v>
+        <v>5.359249443090702</v>
       </c>
       <c r="L49">
-        <v>1.987767226640095</v>
+        <v>3.409866652082079</v>
       </c>
       <c r="M49">
-        <v>12.10709693534162</v>
+        <v>20.76882320025357</v>
       </c>
       <c r="N49">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O49">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P49">
-        <v>48.64444260069443</v>
+        <v>83.44591882299976</v>
       </c>
     </row>
   </sheetData>
